--- a/KDE/data.xlsx
+++ b/KDE/data.xlsx
@@ -390,7 +390,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.119424865177433</v>
+        <v>7.516447953599738</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -398,7 +398,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.71391182094411</v>
+        <v>2.693773802022988</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -406,7 +406,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.09032288091693</v>
+        <v>5.825985338568019</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -414,7 +414,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.373316907202144</v>
+        <v>4.133600197076381</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -422,7 +422,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.371037438258565</v>
+        <v>4.400112386026189</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -430,7 +430,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.865181469113485</v>
+        <v>5.58488692199578</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -438,7 +438,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.92532699868711</v>
+        <v>6.787819147751295</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -446,7 +446,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.150657679459017</v>
+        <v>7.388645101871468</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -454,7 +454,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.392080845375868</v>
+        <v>6.320019946037707</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -462,7 +462,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.16077974153671</v>
+        <v>13.32393784466298</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -470,7 +470,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.720046487667163</v>
+        <v>5.133708473441446</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -478,7 +478,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.516794302516273</v>
+        <v>14.25309491716679</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -486,7 +486,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.411653512625499</v>
+        <v>5.695549057218701</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -494,7 +494,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.922085267346333</v>
+        <v>4.610795783769206</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -502,7 +502,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.61988235958589</v>
+        <v>5.567209556239266</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -510,7 +510,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.886956367068134</v>
+        <v>8.816443595104721</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -518,7 +518,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.052691564222206</v>
+        <v>3.719446565812885</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -526,7 +526,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.006679124744329</v>
+        <v>2.450895330442491</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -534,7 +534,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.453612914853962</v>
+        <v>9.531794758733085</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -542,7 +542,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.637119106750763</v>
+        <v>6.981435001023379</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -550,7 +550,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.357602049562367</v>
+        <v>3.861524999904363</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -558,7 +558,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.640984068550363</v>
+        <v>5.990587087817118</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -566,7 +566,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.511078972037885</v>
+        <v>3.874552898926122</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -574,7 +574,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.89963572001477</v>
+        <v>7.966221040252366</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -582,7 +582,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>7.185457511909631</v>
+        <v>6.826479871521681</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>12.49481359923884</v>
+        <v>13.95977676211816</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -598,7 +598,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>7.057873106910465</v>
+        <v>7.115419752919172</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -606,7 +606,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6.314588537489594</v>
+        <v>4.504262308563463</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -614,7 +614,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>4.711543645325215</v>
+        <v>2.802043032994484</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -622,7 +622,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>7.14560066815846</v>
+        <v>9.958552919036135</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -630,7 +630,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>4.804282504266772</v>
+        <v>13.15283664883119</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -638,7 +638,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6.373309776437737</v>
+        <v>12.4760715908033</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -646,7 +646,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>11.83914441274319</v>
+        <v>3.706306844994789</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -654,7 +654,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>23.39240587491705</v>
+        <v>26.27422900922666</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -662,7 +662,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>4.122137700169281</v>
+        <v>11.18252438757575</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -670,7 +670,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>22.488074155224</v>
+        <v>5.506278900917437</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -678,7 +678,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>13.84434174245466</v>
+        <v>6.503370963816215</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -686,7 +686,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>7.400042725177245</v>
+        <v>10.39572444802204</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -694,7 +694,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>3.668592564595934</v>
+        <v>10.92074902160533</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -702,7 +702,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>12.73083258460907</v>
+        <v>8.369408470662306</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -710,7 +710,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7.87476285443234</v>
+        <v>5.564422961261258</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -718,7 +718,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>5.944982785541597</v>
+        <v>6.157366516618481</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -726,7 +726,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>8.444134166555607</v>
+        <v>6.132179516148421</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -734,7 +734,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>3.273749003662788</v>
+        <v>3.37033412109736</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -742,7 +742,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>9.955336075022638</v>
+        <v>18.93753339905873</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -750,7 +750,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>4.286392585262314</v>
+        <v>10.16755839343791</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -758,7 +758,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6.183772594461398</v>
+        <v>10.09417690207295</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -766,7 +766,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>14.39206034085235</v>
+        <v>6.812805063189194</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -774,7 +774,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>12.29680601482434</v>
+        <v>4.803239838105406</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -782,7 +782,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>7.651346305665285</v>
+        <v>14.26268208058786</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -790,7 +790,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>4.138230330649171</v>
+        <v>9.070772764758139</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -798,7 +798,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5.286826069289599</v>
+        <v>9.021090190766845</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -806,7 +806,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6.089958291443754</v>
+        <v>14.61049108980879</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -814,7 +814,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>4.870385068593103</v>
+        <v>9.40916788134588</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -822,7 +822,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7.222063307340911</v>
+        <v>10.71116578368487</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -830,7 +830,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>11.37312437928508</v>
+        <v>5.52400967318608</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -838,7 +838,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>4.692969404855805</v>
+        <v>4.898580887467071</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -846,7 +846,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7.267997905595571</v>
+        <v>6.550286371481477</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -854,7 +854,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>4.031231598309944</v>
+        <v>7.816055837182391</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -862,7 +862,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>9.947614209233089</v>
+        <v>6.999889596260725</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -870,7 +870,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>8.589826189147045</v>
+        <v>9.277065912218491</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -878,7 +878,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>13.60760040569016</v>
+        <v>10.20299439959461</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -886,7 +886,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>17.07272072988661</v>
+        <v>7.019633460423537</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -894,7 +894,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>11.43700341203618</v>
+        <v>8.503480527051634</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -902,7 +902,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>8.471326844781043</v>
+        <v>7.44861682099835</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -910,7 +910,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>2.789769674071052</v>
+        <v>7.961991474633516</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -918,7 +918,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>4.665170092698925</v>
+        <v>7.37013700131866</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -926,7 +926,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6.084184552206136</v>
+        <v>3.839691450276755</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -934,7 +934,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>3.570456395646632</v>
+        <v>10.8210464307607</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -942,7 +942,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>14.60100302338804</v>
+        <v>10.53345239964278</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -950,7 +950,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5.791036692685568</v>
+        <v>2.449469683836457</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -958,7 +958,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6.764865768630454</v>
+        <v>5.342873843704414</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -966,7 +966,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>9.576119356734299</v>
+        <v>7.391503295278281</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -974,7 +974,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>7.870986809941635</v>
+        <v>7.907610509575562</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -982,7 +982,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>9.016490849956586</v>
+        <v>12.88967027203831</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -990,7 +990,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>7.081714770282832</v>
+        <v>17.59579365853071</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -998,7 +998,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>10.17558960244593</v>
+        <v>4.29266552895781</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1006,7 +1006,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6.76922137860066</v>
+        <v>4.087801869140003</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1014,7 +1014,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6.868022757986052</v>
+        <v>6.664054003946837</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1022,7 +1022,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>13.80848623402003</v>
+        <v>5.724762923209991</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1030,7 +1030,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>1.940226181686568</v>
+        <v>3.185097226233323</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1038,7 +1038,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>51.6064556572172</v>
+        <v>3.666321650729941</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1046,7 +1046,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>7.132911597480647</v>
+        <v>9.608758557243336</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1054,7 +1054,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>2.888243484213868</v>
+        <v>3.640677771491472</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1062,7 +1062,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5.887537143556075</v>
+        <v>5.858012899331832</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1070,7 +1070,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>10.36830110012191</v>
+        <v>16.24820749634627</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1078,7 +1078,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>5.243525259134221</v>
+        <v>4.058395982553667</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1086,7 +1086,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>16.15354920690879</v>
+        <v>9.496830295945973</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1094,7 +1094,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7.436468937993449</v>
+        <v>7.089689047167269</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1102,7 +1102,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>13.3815484654092</v>
+        <v>7.894782988847613</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1110,7 +1110,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>9.936413425159706</v>
+        <v>5.937161759066811</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1118,7 +1118,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6.863560618581737</v>
+        <v>6.098517583744464</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1126,7 +1126,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6.33998583355784</v>
+        <v>3.928606759751252</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1134,7 +1134,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>4.395810040893444</v>
+        <v>11.84207544988303</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1142,7 +1142,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>11.03737828446211</v>
+        <v>8.964264366530257</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1150,7 +1150,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>9.822351233316541</v>
+        <v>5.307741673670462</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1158,7 +1158,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>12.34965777723469</v>
+        <v>3.294897409678207</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1166,7 +1166,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>14.75554301293415</v>
+        <v>4.194788589149717</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1174,7 +1174,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>11.28060345824068</v>
+        <v>33.66196434897882</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1182,7 +1182,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>11.46014443142276</v>
+        <v>6.084662832995087</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1190,7 +1190,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>12.76513636925745</v>
+        <v>11.2331771135388</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1198,7 +1198,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>3.66616140231434</v>
+        <v>11.7933806626045</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1206,7 +1206,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>5.71782099134616</v>
+        <v>5.827687337626838</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1214,7 +1214,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>15.62796276438168</v>
+        <v>8.288868881732908</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1222,7 +1222,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>10.99961477820079</v>
+        <v>10.03079335184546</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1230,7 +1230,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>2.326925391559756</v>
+        <v>5.211891724380423</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1238,7 +1238,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>9.295339157668881</v>
+        <v>6.759593949646751</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1246,7 +1246,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6.149351066995206</v>
+        <v>13.07738365424662</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1254,7 +1254,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>4.234946121640092</v>
+        <v>11.16862455540282</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1262,7 +1262,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>17.45466070442589</v>
+        <v>5.92977089898087</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1270,7 +1270,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7.064971213115881</v>
+        <v>10.40925574428955</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1278,7 +1278,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>8.740110220300169</v>
+        <v>5.529037988181875</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1286,7 +1286,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>4.745494386828155</v>
+        <v>3.369170553859553</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1294,7 +1294,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>10.2976602321736</v>
+        <v>3.955437963161625</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1302,7 +1302,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>8.985720207706761</v>
+        <v>7.935356940592699</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1310,7 +1310,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6.464959508938612</v>
+        <v>12.12882033744907</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1318,7 +1318,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>13.52739158489691</v>
+        <v>2.246390564556137</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1326,7 +1326,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>8.701608482408165</v>
+        <v>3.272322107637461</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1334,7 +1334,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>5.107422217355378</v>
+        <v>4.575713421447083</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1342,7 +1342,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>4.704892045675455</v>
+        <v>7.000668198931674</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1350,7 +1350,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>8.75390232060492</v>
+        <v>5.457953978044191</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1358,7 +1358,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>5.389186628026321</v>
+        <v>4.888475628886133</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1366,7 +1366,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>8.550270355935147</v>
+        <v>3.047557297742225</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1374,7 +1374,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>11.03362001551699</v>
+        <v>4.877326628195228</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1382,7 +1382,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>5.322203570997104</v>
+        <v>3.535116220532401</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1390,7 +1390,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>4.037498811259529</v>
+        <v>6.645404442814541</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1398,7 +1398,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>5.463808819267985</v>
+        <v>19.02377888838144</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1406,7 +1406,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>5.318557533588055</v>
+        <v>7.551837275634214</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1414,7 +1414,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>31.83763842837978</v>
+        <v>17.25520270602177</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1422,7 +1422,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>8.407568306332349</v>
+        <v>16.46576673724637</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1430,7 +1430,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>5.275222954657996</v>
+        <v>6.161059381238381</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1438,7 +1438,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>3.744446911572483</v>
+        <v>12.3839742384803</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1446,7 +1446,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>8.249591756661152</v>
+        <v>3.314782892638477</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1454,7 +1454,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>5.379399755575361</v>
+        <v>4.84674820377761</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1462,7 +1462,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>2.510938127603539</v>
+        <v>12.46887406893181</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1470,7 +1470,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>17.97135123784794</v>
+        <v>7.274694324197399</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1478,7 +1478,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>9.48811891437281</v>
+        <v>4.488405112494303</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1486,7 +1486,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>13.98053541073006</v>
+        <v>4.610574838195475</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1494,7 +1494,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>3.564060514459888</v>
+        <v>3.791260965442703</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1502,7 +1502,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6.72320087717612</v>
+        <v>10.49175479503121</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1510,7 +1510,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>17.0625825740778</v>
+        <v>10.44843798126295</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1518,7 +1518,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>12.15129148537611</v>
+        <v>11.43461861602803</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1526,7 +1526,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>8.111133365930931</v>
+        <v>4.699564715804063</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1534,7 +1534,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>10.20652673035374</v>
+        <v>18.58597790150357</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1542,7 +1542,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>9.744224630959463</v>
+        <v>12.73350775253671</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1550,7 +1550,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>5.652358530600787</v>
+        <v>9.050058085971841</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1558,7 +1558,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6.167549100718384</v>
+        <v>6.040379310857439</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -1566,7 +1566,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6.449640289458639</v>
+        <v>6.420608897429119</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1574,7 +1574,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>4.098538851753972</v>
+        <v>10.43640942328959</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1582,7 +1582,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>13.58607170430256</v>
+        <v>13.36522269481426</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1590,7 +1590,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>11.32969796634292</v>
+        <v>12.75863835225255</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -1598,7 +1598,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>4.968533802936318</v>
+        <v>7.513413595956835</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1606,7 +1606,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6.069148869809903</v>
+        <v>17.66895740122875</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -1614,7 +1614,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6.413615788092369</v>
+        <v>8.244423368040311</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -1622,7 +1622,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>14.66710828455252</v>
+        <v>7.335702921618942</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -1630,7 +1630,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>8.521784471889186</v>
+        <v>12.06770880294801</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -1638,7 +1638,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>12.87268549633061</v>
+        <v>10.08109121459763</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1646,7 +1646,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>23.25467341627893</v>
+        <v>9.417237763726266</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -1654,7 +1654,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>3.778665122155415</v>
+        <v>5.536853622870147</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -1662,7 +1662,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>5.366121585953109</v>
+        <v>5.134365469691501</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1670,7 +1670,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6.927695782586561</v>
+        <v>5.288061566258571</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -1678,7 +1678,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>5.059456554384409</v>
+        <v>31.57741487840879</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1686,7 +1686,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>8.473463161306972</v>
+        <v>9.334301202240894</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1694,7 +1694,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>10.58521291093789</v>
+        <v>2.610794755733957</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1702,7 +1702,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>4.92576326385324</v>
+        <v>4.89080932763179</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -1710,7 +1710,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>13.07200697627035</v>
+        <v>5.209665427159708</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1718,7 +1718,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>8.620758559066969</v>
+        <v>5.237202979915165</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1726,7 +1726,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>7.765418976921186</v>
+        <v>4.01405191348811</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1734,7 +1734,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>9.427476709339423</v>
+        <v>5.740657018211845</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -1742,7 +1742,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6.878028349143292</v>
+        <v>8.351212884719487</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -1750,7 +1750,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>3.634478016591637</v>
+        <v>11.47004456284503</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -1758,7 +1758,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>15.99687262312921</v>
+        <v>8.272740286186172</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -1766,7 +1766,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7.561150831307514</v>
+        <v>19.65136389482001</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1774,7 +1774,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>3.181099877585956</v>
+        <v>6.877339091997852</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1782,7 +1782,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>8.141037697790678</v>
+        <v>27.50353985739391</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -1790,7 +1790,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>5.728936644254554</v>
+        <v>10.19237423506439</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -1798,7 +1798,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>8.557553887176377</v>
+        <v>8.071985126399666</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -1806,7 +1806,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>10.01037111602687</v>
+        <v>5.630278207097684</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -1814,7 +1814,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>8.629594334573337</v>
+        <v>8.036014520159057</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -1822,7 +1822,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6.435713195675752</v>
+        <v>6.375386363176199</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -1830,7 +1830,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>11.02180732588565</v>
+        <v>8.066024990501756</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -1838,7 +1838,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>4.288116857951399</v>
+        <v>4.001634400045624</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -1846,7 +1846,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>11.37040322336141</v>
+        <v>10.12222556312427</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -1854,7 +1854,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>8.946787727099881</v>
+        <v>9.007207461803095</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -1862,7 +1862,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>9.898361599374454</v>
+        <v>6.49720548153307</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -1870,7 +1870,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>11.51024387419592</v>
+        <v>8.95361996994709</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -1878,7 +1878,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6.165289363767075</v>
+        <v>4.389424706037888</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1886,7 +1886,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7.306986312809937</v>
+        <v>14.41955837950217</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -1894,7 +1894,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>10.62528630193394</v>
+        <v>21.87753824623779</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1902,7 +1902,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>11.92954907684637</v>
+        <v>3.60795618200609</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -1910,7 +1910,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>4.062078895210422</v>
+        <v>15.61951837666241</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -1918,7 +1918,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>3.842966899304213</v>
+        <v>6.89576995080189</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -1926,7 +1926,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>16.95162809946546</v>
+        <v>5.48783396896348</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -1934,7 +1934,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>19.98937690779181</v>
+        <v>5.361334874245899</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -1942,7 +1942,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>5.56983796515541</v>
+        <v>3.450341928540045</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -1950,7 +1950,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>4.633924961794029</v>
+        <v>7.160283293544897</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1958,7 +1958,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>12.48584627229673</v>
+        <v>8.029813080740356</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1966,7 +1966,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>12.40944698026739</v>
+        <v>7.212144170152515</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -1974,7 +1974,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>20.23102458670798</v>
+        <v>3.951544219641713</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -1982,7 +1982,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>10.01930749804883</v>
+        <v>5.364456313402116</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -1990,7 +1990,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>12.11677073379023</v>
+        <v>3.363488371320285</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -1998,7 +1998,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>8.800774813042482</v>
+        <v>19.25240344313837</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2006,7 +2006,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>11.28486209950483</v>
+        <v>10.31326054410847</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2014,7 +2014,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>15.44188902067835</v>
+        <v>10.94993573840126</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2022,7 +2022,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>8.898120430071877</v>
+        <v>13.17984493771719</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2030,7 +2030,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>8.651523633901311</v>
+        <v>7.61422652942395</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2038,7 +2038,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6.026842604488532</v>
+        <v>6.027299173474343</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2046,7 +2046,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6.018894390093448</v>
+        <v>8.105891808722024</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2054,7 +2054,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>4.947905195450501</v>
+        <v>10.0291756164074</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2062,7 +2062,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>15.00225180864929</v>
+        <v>4.909524204902906</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2070,7 +2070,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>5.005287011922715</v>
+        <v>9.919694362050503</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2078,7 +2078,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>9.251197079816702</v>
+        <v>6.985367261786313</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2086,7 +2086,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>11.15233828991483</v>
+        <v>5.596112532721997</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2094,7 +2094,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>9.860505225806074</v>
+        <v>6.716653922025138</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2102,7 +2102,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>8.87183080247849</v>
+        <v>12.35539577715653</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2110,7 +2110,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>8.044552130942966</v>
+        <v>6.248770414710783</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2118,7 +2118,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>8.156655651625279</v>
+        <v>2.444903527393155</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2126,7 +2126,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>13.50941782522102</v>
+        <v>5.654497465552819</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2134,7 +2134,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>2.923683986089043</v>
+        <v>14.53556698082201</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2142,7 +2142,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>10.41056324800706</v>
+        <v>12.62532012042041</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2150,7 +2150,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>10.44676172447261</v>
+        <v>6.9691886952952</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2158,7 +2158,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>11.54777973548563</v>
+        <v>12.30342372556661</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2166,7 +2166,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>4.180701386646176</v>
+        <v>14.359650465491</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2174,7 +2174,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>1.977279622492072</v>
+        <v>3.428280412388124</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2182,7 +2182,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6.756768366501697</v>
+        <v>5.555621978571699</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2190,7 +2190,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>7.148440296278586</v>
+        <v>16.1580368076235</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2198,7 +2198,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>23.49101727746845</v>
+        <v>32.56906558519314</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2206,7 +2206,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7.92017350869964</v>
+        <v>10.66765313686115</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2214,7 +2214,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>4.454150022607058</v>
+        <v>6.973728020839943</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2222,7 +2222,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>3.175382877856966</v>
+        <v>12.06512415123606</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2230,7 +2230,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>5.034005966809378</v>
+        <v>7.197157685713377</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2238,7 +2238,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>7.587352039372854</v>
+        <v>19.55680854573353</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2246,7 +2246,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>8.847259971916486</v>
+        <v>11.99772308655393</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2254,7 +2254,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>9.973916186054817</v>
+        <v>29.10560378970019</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2262,7 +2262,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6.726620587909905</v>
+        <v>2.394073403427711</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2270,7 +2270,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6.940439559077578</v>
+        <v>4.440902142874612</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2278,7 +2278,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>8.661988228331165</v>
+        <v>5.347311717083432</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -2286,7 +2286,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>8.89933517452554</v>
+        <v>7.610050035763761</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2294,7 +2294,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>3.969697564556963</v>
+        <v>4.825579265189221</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -2302,7 +2302,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6.628516738412787</v>
+        <v>14.63973857765711</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2310,7 +2310,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>3.048890299571623</v>
+        <v>12.53286922195232</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -2318,7 +2318,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>5.357445784072111</v>
+        <v>6.882229839148392</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -2326,7 +2326,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>5.785687096255498</v>
+        <v>10.00633304424751</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -2334,7 +2334,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>17.62206086827938</v>
+        <v>3.423970393526249</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -2342,7 +2342,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>7.104214191199921</v>
+        <v>5.1936899599726</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -2350,7 +2350,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>7.241442977283917</v>
+        <v>6.969377069548717</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -2358,7 +2358,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>4.785738743884998</v>
+        <v>10.1082231108356</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -2366,7 +2366,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>8.980782977633202</v>
+        <v>11.05405945632735</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -2374,7 +2374,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>5.935368017447985</v>
+        <v>10.01350313508311</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -2382,7 +2382,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>8.822937239278266</v>
+        <v>7.540321224683926</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -2390,7 +2390,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>9.674264207165987</v>
+        <v>4.922665678332283</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -2398,7 +2398,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>7.997509791588929</v>
+        <v>9.47633167983378</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -2406,7 +2406,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>6.570040482170649</v>
+        <v>9.611914727170333</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -2414,7 +2414,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>7.116576386556898</v>
+        <v>9.882874189972688</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -2422,7 +2422,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>5.87200439605212</v>
+        <v>16.74199166587169</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -2430,7 +2430,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>10.08334236768282</v>
+        <v>5.009067293606919</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -2438,7 +2438,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>3.14098874956172</v>
+        <v>10.52699356895607</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -2446,7 +2446,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>3.75815189919978</v>
+        <v>11.87774987514702</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -2454,7 +2454,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>6.881028161505676</v>
+        <v>8.622337236486176</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -2462,7 +2462,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>4.179086575042007</v>
+        <v>12.3805175209192</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -2470,7 +2470,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>6.344546697196271</v>
+        <v>9.107388364138753</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -2478,7 +2478,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>9.46923227313291</v>
+        <v>4.202782798974894</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -2486,7 +2486,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>8.182200650228918</v>
+        <v>4.929970453371888</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -2494,7 +2494,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>5.532280034024877</v>
+        <v>12.54893989698244</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -2502,7 +2502,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>7.321831282450986</v>
+        <v>6.156656742662232</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -2510,7 +2510,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>8.396449566541733</v>
+        <v>8.458100668733836</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -2518,7 +2518,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>6.231123812356312</v>
+        <v>2.865282043535163</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -2526,7 +2526,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>8.439364533855178</v>
+        <v>3.678314671280568</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -2534,7 +2534,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>5.753370278689249</v>
+        <v>3.961038820871883</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -2542,7 +2542,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>5.15650379940111</v>
+        <v>8.778417874678892</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -2550,7 +2550,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>6.687973763702961</v>
+        <v>8.1214305620465</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -2558,7 +2558,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>14.76774789771973</v>
+        <v>13.66722577626336</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -2566,7 +2566,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>6.845817944189995</v>
+        <v>4.678986664065452</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -2574,7 +2574,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>6.173096594838441</v>
+        <v>3.664883209527462</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -2582,7 +2582,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>11.9540193724181</v>
+        <v>3.398795147133915</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -2590,7 +2590,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>6.22412503417024</v>
+        <v>5.007808714391936</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -2598,7 +2598,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>5.694031482878316</v>
+        <v>5.777140845383834</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -2606,7 +2606,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>5.157549271897663</v>
+        <v>4.894965332381585</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -2614,7 +2614,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>4.432706445969284</v>
+        <v>11.61250887009035</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -2622,7 +2622,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>10.86649365958171</v>
+        <v>16.58290696167495</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -2630,7 +2630,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>5.322822585865948</v>
+        <v>5.875780367890052</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -2638,7 +2638,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>12.42480974693503</v>
+        <v>7.671553489493606</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -2646,7 +2646,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>5.585226402461301</v>
+        <v>6.258436615867427</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -2654,7 +2654,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>7.234669981942815</v>
+        <v>4.969732581747349</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -2662,7 +2662,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>6.22940022448334</v>
+        <v>6.436030083451361</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -2670,7 +2670,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>12.14569915372419</v>
+        <v>7.284211225995763</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -2678,7 +2678,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>17.01099127364824</v>
+        <v>5.492593493610239</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -2686,7 +2686,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>6.739036235685443</v>
+        <v>11.24452579835947</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -2694,7 +2694,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>2.511959880152574</v>
+        <v>4.759034452663823</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -2702,7 +2702,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>13.21758385759379</v>
+        <v>6.681099407504153</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -2710,7 +2710,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>12.1488313272382</v>
+        <v>9.974463331305937</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -2718,7 +2718,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>7.247270459641581</v>
+        <v>4.780270926117191</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -2726,7 +2726,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>7.667046172381753</v>
+        <v>7.574226555790458</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -2734,7 +2734,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>27.6527019117138</v>
+        <v>6.72663101752956</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -2742,7 +2742,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>3.321473088883335</v>
+        <v>2.50630487280039</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -2750,7 +2750,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>5.818448127547285</v>
+        <v>7.144658634198691</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -2758,7 +2758,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>6.135701402347574</v>
+        <v>4.261555670363268</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -2766,7 +2766,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>8.427451115015584</v>
+        <v>5.779338210116146</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -2774,7 +2774,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>7.436621454375822</v>
+        <v>15.21530469893083</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -2782,7 +2782,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>13.1532774149688</v>
+        <v>14.91741780178733</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -2790,7 +2790,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>5.330439313366108</v>
+        <v>6.097440996328686</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -2798,7 +2798,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>5.62951971331703</v>
+        <v>5.73551438934861</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -2806,7 +2806,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>4.136852391803368</v>
+        <v>9.296736349336371</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -2814,7 +2814,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>9.605822513639414</v>
+        <v>10.28275758645381</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -2822,7 +2822,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>4.93504438636691</v>
+        <v>19.43679564340985</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -2830,7 +2830,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>6.476230599041084</v>
+        <v>4.225842172000315</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -2838,7 +2838,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>4.346902668842169</v>
+        <v>9.318745054817999</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -2846,7 +2846,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>7.216634853181575</v>
+        <v>9.560955722034839</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -2854,7 +2854,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>5.587591554003776</v>
+        <v>20.58422024369701</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -2862,7 +2862,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>6.329857439297724</v>
+        <v>6.219231675178977</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -2870,7 +2870,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>7.808098494627373</v>
+        <v>13.36250359999647</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -2878,7 +2878,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>4.767741673259781</v>
+        <v>3.80688380972501</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -2886,7 +2886,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>5.287130843395375</v>
+        <v>21.94701601402899</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -2894,7 +2894,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>11.50818455705133</v>
+        <v>3.692256300325583</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -2902,7 +2902,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>5.881120144716776</v>
+        <v>4.878157274549577</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -2910,7 +2910,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>13.88005568603755</v>
+        <v>16.11566522958725</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -2918,7 +2918,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>6.878064511757508</v>
+        <v>9.113715728999644</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -2926,7 +2926,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>7.739262724335993</v>
+        <v>8.603035928929501</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -2934,7 +2934,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>16.70227225762123</v>
+        <v>8.560393448080609</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -2942,7 +2942,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>7.080388742592696</v>
+        <v>6.197985919103391</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -2950,7 +2950,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>3.980526485971359</v>
+        <v>6.544918813926888</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -2958,7 +2958,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>4.178588529191286</v>
+        <v>6.340792231651929</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -2966,7 +2966,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>11.61450135221777</v>
+        <v>5.643143334793281</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -2974,7 +2974,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>6.690297920470496</v>
+        <v>7.622391020548613</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -2982,7 +2982,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>3.982543694247243</v>
+        <v>4.23338979490537</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -2990,7 +2990,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>8.507398122183691</v>
+        <v>7.865998303592343</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -2998,7 +2998,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>2.987016437523538</v>
+        <v>3.665347264563279</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -3006,7 +3006,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>6.376783924125807</v>
+        <v>2.698881554698221</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -3014,7 +3014,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>5.277004380736734</v>
+        <v>8.922756020375607</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -3022,7 +3022,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>6.25431620044062</v>
+        <v>5.900179679235162</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -3030,7 +3030,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>8.478708511861553</v>
+        <v>5.53175206025583</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -3038,7 +3038,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>5.661880747610435</v>
+        <v>4.199542387020591</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -3046,7 +3046,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>5.575394508470218</v>
+        <v>3.460693760548593</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -3054,7 +3054,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>4.765306312944635</v>
+        <v>4.976484759310443</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -3062,7 +3062,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>11.27547863541665</v>
+        <v>10.79764754642892</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -3070,7 +3070,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>4.338159415752575</v>
+        <v>4.548209952873369</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -3078,7 +3078,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>5.344779248583599</v>
+        <v>7.336631297190751</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -3086,7 +3086,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>3.783847404189988</v>
+        <v>6.367029236564564</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -3094,7 +3094,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>6.895637307056734</v>
+        <v>9.789679233907265</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -3102,7 +3102,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>9.856965356946008</v>
+        <v>11.2833568518963</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -3110,7 +3110,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>4.406727969715133</v>
+        <v>6.918009648617367</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -3118,7 +3118,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>8.075292014883679</v>
+        <v>5.354303870139077</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -3126,7 +3126,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>7.345411585958168</v>
+        <v>11.26190961283892</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -3134,7 +3134,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>7.569546486748926</v>
+        <v>10.64398151665606</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -3142,7 +3142,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>13.4366168070517</v>
+        <v>5.026577813090196</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -3150,7 +3150,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>11.80279780629975</v>
+        <v>8.392336294418769</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -3158,7 +3158,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>13.51777055435165</v>
+        <v>6.356314066787378</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -3166,7 +3166,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>10.08407760675371</v>
+        <v>4.824827387801544</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -3174,7 +3174,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>5.371035453387114</v>
+        <v>14.83949086842009</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -3182,7 +3182,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>7.108939698827746</v>
+        <v>6.774452619487993</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -3190,7 +3190,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>14.52940010055259</v>
+        <v>8.828089355292009</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3198,7 +3198,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>7.265511417499259</v>
+        <v>8.00445508998391</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -3206,7 +3206,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>15.86405502410023</v>
+        <v>4.844681535399323</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -3214,7 +3214,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>17.55219789974265</v>
+        <v>4.574090611315098</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -3222,7 +3222,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>15.41309582305522</v>
+        <v>18.70374235022702</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -3230,7 +3230,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>16.3710789924758</v>
+        <v>12.07900238598913</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -3238,7 +3238,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>11.17418789935269</v>
+        <v>6.815019542509963</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -3246,7 +3246,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>7.477768419462143</v>
+        <v>7.434333338257463</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -3254,7 +3254,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>9.750765732777358</v>
+        <v>3.866098817927873</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -3262,7 +3262,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>6.952299059160747</v>
+        <v>6.61537285765634</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -3270,7 +3270,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>3.017264231313308</v>
+        <v>15.08570744517665</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -3278,7 +3278,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>14.16572291685491</v>
+        <v>7.574961137340127</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -3286,7 +3286,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>7.273800189039049</v>
+        <v>3.751671853755727</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -3294,7 +3294,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>6.126812798935584</v>
+        <v>9.615662638413687</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -3302,7 +3302,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>3.450909971095598</v>
+        <v>7.610634537175329</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -3310,7 +3310,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>11.16350966862522</v>
+        <v>20.7661159331069</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -3318,7 +3318,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>9.61319489095553</v>
+        <v>7.283771561340519</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -3326,7 +3326,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>15.397983914887</v>
+        <v>8.896309935139138</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -3334,7 +3334,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>7.20048244408918</v>
+        <v>5.997329443695797</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -3342,7 +3342,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>6.547593182083215</v>
+        <v>12.38612802316817</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -3350,7 +3350,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>8.629061945340712</v>
+        <v>8.129647380023368</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -3358,7 +3358,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>7.210742561883084</v>
+        <v>9.663278744017088</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -3366,7 +3366,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>7.235173534478652</v>
+        <v>4.157223303483377</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -3374,7 +3374,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>22.72463241406735</v>
+        <v>4.734739115015038</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -3382,7 +3382,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>4.965649280440469</v>
+        <v>10.67644792211748</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -3390,7 +3390,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>19.76379417192822</v>
+        <v>2.559489090180715</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -3398,7 +3398,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>7.837574052602231</v>
+        <v>3.84739381373764</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -3406,7 +3406,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>18.28266844590598</v>
+        <v>14.87648221054782</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -3414,7 +3414,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>4.516256000696056</v>
+        <v>10.80977127492599</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -3422,7 +3422,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>5.589197690743419</v>
+        <v>6.047124052609121</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -3430,7 +3430,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>9.956196689916942</v>
+        <v>8.126268905751267</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -3438,7 +3438,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>3.024669431077113</v>
+        <v>6.937669178202409</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -3446,7 +3446,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>5.767730850429515</v>
+        <v>5.971510412202369</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -3454,7 +3454,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>5.999825604656724</v>
+        <v>4.578869218490404</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -3462,7 +3462,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>5.017597122147185</v>
+        <v>5.574338523835622</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -3470,7 +3470,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>5.748072428787737</v>
+        <v>20.21145714362161</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -3478,7 +3478,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>6.360430419935812</v>
+        <v>8.755413423811916</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -3486,7 +3486,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>14.84419924766052</v>
+        <v>6.570778393234833</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -3494,7 +3494,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>2.533243370922336</v>
+        <v>14.92243353232415</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -3502,7 +3502,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>6.06789002352542</v>
+        <v>6.555260083741635</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -3510,7 +3510,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>9.229647230356584</v>
+        <v>11.34007387403044</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -3518,7 +3518,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>14.68034393339483</v>
+        <v>12.38820970825405</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -3526,7 +3526,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>12.25166115786579</v>
+        <v>7.713707910265259</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -3534,7 +3534,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>12.39434293079929</v>
+        <v>17.65691598559498</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -3542,7 +3542,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>5.976642206162694</v>
+        <v>2.710172454347659</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -3550,7 +3550,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>5.223307045638118</v>
+        <v>8.331143540641939</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -3558,7 +3558,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>7.46792563677184</v>
+        <v>4.97034338337792</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -3566,7 +3566,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>3.494604822028457</v>
+        <v>12.51962576052486</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -3574,7 +3574,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>3.396064220015438</v>
+        <v>13.06657785638631</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -3582,7 +3582,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>9.561080462233004</v>
+        <v>6.600646217303933</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -3590,7 +3590,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>3.465986522111707</v>
+        <v>8.572923626780817</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -3598,7 +3598,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>3.135800772393421</v>
+        <v>6.413244825607884</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -3606,7 +3606,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>17.41216566444125</v>
+        <v>7.013663046031312</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -3614,7 +3614,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>13.36179736826928</v>
+        <v>16.99151073473757</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -3622,7 +3622,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>3.239903993733529</v>
+        <v>9.733031137505025</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -3630,7 +3630,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>17.52525240038271</v>
+        <v>10.0028955957861</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -3638,7 +3638,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>27.72272382055409</v>
+        <v>5.917438862934492</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -3646,7 +3646,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>23.41897007346089</v>
+        <v>7.752360980805276</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -3654,7 +3654,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>5.806098368041384</v>
+        <v>9.272095831718799</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -3662,7 +3662,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>13.65377652067206</v>
+        <v>8.412849508334741</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -3670,7 +3670,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>14.69865073953835</v>
+        <v>8.389788171072874</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -3678,7 +3678,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>7.15496613593463</v>
+        <v>10.99471095544892</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -3686,7 +3686,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>3.603833426340456</v>
+        <v>3.305644558194743</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -3694,7 +3694,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>7.770973973159206</v>
+        <v>8.967540378565539</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -3702,7 +3702,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>7.326775902191078</v>
+        <v>2.058611777073498</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -3710,7 +3710,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>4.413711839168524</v>
+        <v>14.22214448930765</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -3718,7 +3718,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>5.980740363881925</v>
+        <v>4.660708727922303</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -3726,7 +3726,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>5.728084182990674</v>
+        <v>3.420543551638572</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -3734,7 +3734,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>18.93371686233714</v>
+        <v>5.258783331113801</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -3742,7 +3742,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>5.801952414292778</v>
+        <v>22.83531583228508</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -3750,7 +3750,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>7.871732446942509</v>
+        <v>5.791454127438839</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -3758,7 +3758,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>5.760220860130577</v>
+        <v>12.34431700487354</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -3766,7 +3766,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>6.829462399475101</v>
+        <v>7.914126452068331</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -3774,7 +3774,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>4.866730519404787</v>
+        <v>6.136351235271722</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -3782,7 +3782,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>7.161611082358346</v>
+        <v>4.068114625232139</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -3790,7 +3790,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>4.564893940234161</v>
+        <v>10.61606510720232</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -3798,7 +3798,7 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>6.584989112859192</v>
+        <v>11.95303213323132</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -3806,7 +3806,7 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>6.658556953186067</v>
+        <v>2.830099021189589</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -3814,7 +3814,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>5.05737328024037</v>
+        <v>5.636750204278858</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -3822,7 +3822,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>7.277665131935788</v>
+        <v>4.74883534608668</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -3830,7 +3830,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>16.48406442252014</v>
+        <v>13.7181320857487</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -3838,7 +3838,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>9.068532547206326</v>
+        <v>7.198677825359722</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -3846,7 +3846,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>6.721486499830474</v>
+        <v>4.612284575680254</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -3854,7 +3854,7 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>9.194958501871941</v>
+        <v>3.866043205288313</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -3862,7 +3862,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>7.575110081642888</v>
+        <v>8.624793625163795</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -3870,7 +3870,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>9.530413815085582</v>
+        <v>5.503716926912297</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -3878,7 +3878,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>3.905653778610598</v>
+        <v>10.12695642724928</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -3886,7 +3886,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>2.927403593691494</v>
+        <v>4.56384111363085</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -3894,7 +3894,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>5.342734301816975</v>
+        <v>3.523901687177775</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -3902,7 +3902,7 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>9.113573233609852</v>
+        <v>11.00067328607349</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -3910,7 +3910,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>15.0707106656352</v>
+        <v>17.50644433534301</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -3918,7 +3918,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>8.19588406975601</v>
+        <v>11.96546067115701</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -3926,7 +3926,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>6.169296888533266</v>
+        <v>10.5812392151306</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -3934,7 +3934,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>7.156638202718326</v>
+        <v>8.821178517152212</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -3942,7 +3942,7 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>6.542791768021395</v>
+        <v>4.71798197958371</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -3950,7 +3950,7 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>6.498856214558863</v>
+        <v>7.306613445462798</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -3958,7 +3958,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>10.30481363025964</v>
+        <v>4.391146549024437</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -3966,7 +3966,7 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>9.108146471339252</v>
+        <v>8.309367378320083</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -3974,7 +3974,7 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>8.557483753579357</v>
+        <v>3.478253150706413</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -3982,7 +3982,7 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>5.471661404930525</v>
+        <v>16.98042978741367</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -3990,7 +3990,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>12.51317483694131</v>
+        <v>3.869114582223195</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -3998,7 +3998,7 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>14.81231180243712</v>
+        <v>10.25520271033415</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -4006,7 +4006,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>7.465805042401654</v>
+        <v>3.182265260536465</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -4014,7 +4014,7 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>5.16452450263142</v>
+        <v>3.642394718866728</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -4022,7 +4022,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>11.12434001275667</v>
+        <v>6.415162229111584</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -4030,7 +4030,7 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>3.391028707916043</v>
+        <v>6.92498501307376</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -4038,7 +4038,7 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>5.452199160194061</v>
+        <v>11.09599938756673</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -4046,7 +4046,7 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>8.372400507191292</v>
+        <v>5.50564755428451</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -4054,7 +4054,7 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>10.62856630441562</v>
+        <v>10.90818083552285</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -4062,7 +4062,7 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>6.628461241053965</v>
+        <v>8.366980204000658</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -4070,7 +4070,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>4.087138604893625</v>
+        <v>8.315849085210692</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -4078,7 +4078,7 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>4.634892209300296</v>
+        <v>10.36376076921694</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -4086,7 +4086,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>6.217564868958986</v>
+        <v>9.340690981173056</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -4094,7 +4094,7 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>11.08956004235161</v>
+        <v>8.748937009360557</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -4102,7 +4102,7 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>7.382511310116199</v>
+        <v>5.283686374496289</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -4110,7 +4110,7 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>19.25492838102599</v>
+        <v>2.726413673987324</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -4118,7 +4118,7 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>7.12214092495327</v>
+        <v>8.117986708261471</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -4126,7 +4126,7 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>20.14571761940121</v>
+        <v>11.96742848379215</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -4134,7 +4134,7 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>15.33668974196979</v>
+        <v>11.13176454005988</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -4142,7 +4142,7 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>6.32374304181838</v>
+        <v>12.63725909763857</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -4150,7 +4150,7 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>5.248697388147199</v>
+        <v>5.418072958770597</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -4158,7 +4158,7 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>9.730101031685253</v>
+        <v>7.488579880490049</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -4166,7 +4166,7 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>7.631979625424372</v>
+        <v>10.43455374630096</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -4174,7 +4174,7 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>9.365866266167714</v>
+        <v>10.55365222393337</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -4182,7 +4182,7 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>5.41082091601327</v>
+        <v>11.02161588402619</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -4190,7 +4190,7 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>5.750625175074395</v>
+        <v>20.11125543821406</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -4198,7 +4198,7 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>5.854223284961311</v>
+        <v>21.92507227231554</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -4206,7 +4206,7 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>13.22134995973385</v>
+        <v>11.05450517525687</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -4214,7 +4214,7 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>5.188755593186458</v>
+        <v>10.97863936021309</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -4222,7 +4222,7 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>5.675742583062138</v>
+        <v>6.611935200098598</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -4230,7 +4230,7 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>13.71645681928634</v>
+        <v>8.129217590655022</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -4238,7 +4238,7 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>15.97354115530397</v>
+        <v>4.193680960702886</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -4246,7 +4246,7 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>11.99366712733409</v>
+        <v>7.839182438945214</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -4254,7 +4254,7 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>13.7037732636457</v>
+        <v>3.212475627892021</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -4262,7 +4262,7 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>5.971432584777221</v>
+        <v>7.147281071583215</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -4270,7 +4270,7 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>15.31651410405333</v>
+        <v>10.20421303434996</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -4278,7 +4278,7 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>5.212930421799036</v>
+        <v>16.81836654067946</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -4286,7 +4286,7 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>6.693048916221113</v>
+        <v>10.86107414283814</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -4294,7 +4294,7 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>4.870487820530318</v>
+        <v>8.131763846910228</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -4302,7 +4302,7 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>9.229902619569822</v>
+        <v>9.599302379260042</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -4310,7 +4310,7 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>4.092212353814552</v>
+        <v>5.765116743295302</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -4318,7 +4318,7 @@
         <v>491</v>
       </c>
       <c r="B493">
-        <v>6.843123972861764</v>
+        <v>2.45821967235437</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -4326,7 +4326,7 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>6.102319473652523</v>
+        <v>12.52520835524603</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -4334,7 +4334,7 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>8.039077255227756</v>
+        <v>12.49658535979012</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -4342,7 +4342,7 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>21.29107772961705</v>
+        <v>25.65945256495398</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -4350,7 +4350,7 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>4.715906301551363</v>
+        <v>7.096814199484558</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -4358,7 +4358,7 @@
         <v>496</v>
       </c>
       <c r="B498">
-        <v>8.10071981582964</v>
+        <v>7.612209066101414</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -4366,7 +4366,7 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>4.357574157347033</v>
+        <v>7.704259915969095</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -4374,7 +4374,7 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>18.1500760476492</v>
+        <v>6.744852615350579</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -4382,7 +4382,7 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>9.964285784511658</v>
+        <v>7.706725341379737</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -4390,7 +4390,7 @@
         <v>500</v>
       </c>
       <c r="B502">
-        <v>9.040558717919533</v>
+        <v>5.774950621056894</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -4398,7 +4398,7 @@
         <v>501</v>
       </c>
       <c r="B503">
-        <v>10.10936409106156</v>
+        <v>7.252559900345179</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -4406,7 +4406,7 @@
         <v>502</v>
       </c>
       <c r="B504">
-        <v>10.55704174290585</v>
+        <v>8.536332833188277</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -4414,7 +4414,7 @@
         <v>503</v>
       </c>
       <c r="B505">
-        <v>3.116784824402746</v>
+        <v>6.438528277907873</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -4422,7 +4422,7 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>3.659794937982599</v>
+        <v>3.720032271435803</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -4430,7 +4430,7 @@
         <v>505</v>
       </c>
       <c r="B507">
-        <v>9.46150044389992</v>
+        <v>6.083004172934826</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -4438,7 +4438,7 @@
         <v>506</v>
       </c>
       <c r="B508">
-        <v>5.424492457488855</v>
+        <v>10.94099514941954</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -4446,7 +4446,7 @@
         <v>507</v>
       </c>
       <c r="B509">
-        <v>10.01760077666852</v>
+        <v>8.327443075350548</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -4454,7 +4454,7 @@
         <v>508</v>
       </c>
       <c r="B510">
-        <v>14.3663246177352</v>
+        <v>6.798249296674784</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -4462,7 +4462,7 @@
         <v>509</v>
       </c>
       <c r="B511">
-        <v>4.502806530040162</v>
+        <v>2.27714330240641</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -4470,7 +4470,7 @@
         <v>510</v>
       </c>
       <c r="B512">
-        <v>7.35952207629865</v>
+        <v>4.75252312341811</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -4478,7 +4478,7 @@
         <v>511</v>
       </c>
       <c r="B513">
-        <v>13.15943993878733</v>
+        <v>12.70266200641784</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -4486,7 +4486,7 @@
         <v>512</v>
       </c>
       <c r="B514">
-        <v>9.453140471388563</v>
+        <v>8.264160443758614</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -4494,7 +4494,7 @@
         <v>513</v>
       </c>
       <c r="B515">
-        <v>9.78364285261849</v>
+        <v>12.54912095421482</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -4502,7 +4502,7 @@
         <v>514</v>
       </c>
       <c r="B516">
-        <v>10.32514842907557</v>
+        <v>7.725530093455579</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -4510,7 +4510,7 @@
         <v>515</v>
       </c>
       <c r="B517">
-        <v>10.78261441405301</v>
+        <v>5.677882719444508</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -4518,7 +4518,7 @@
         <v>516</v>
       </c>
       <c r="B518">
-        <v>15.33754477036843</v>
+        <v>8.321884425637464</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -4526,7 +4526,7 @@
         <v>517</v>
       </c>
       <c r="B519">
-        <v>4.049071215326854</v>
+        <v>10.40380956674276</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -4534,7 +4534,7 @@
         <v>518</v>
       </c>
       <c r="B520">
-        <v>11.35383983206082</v>
+        <v>7.490712648030755</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -4542,7 +4542,7 @@
         <v>519</v>
       </c>
       <c r="B521">
-        <v>5.50710303796065</v>
+        <v>6.057362499401274</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -4550,7 +4550,7 @@
         <v>520</v>
       </c>
       <c r="B522">
-        <v>11.70690426800651</v>
+        <v>14.14612468320161</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -4558,7 +4558,7 @@
         <v>521</v>
       </c>
       <c r="B523">
-        <v>11.00820501706562</v>
+        <v>6.068479807200539</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -4566,7 +4566,7 @@
         <v>522</v>
       </c>
       <c r="B524">
-        <v>6.524789760022456</v>
+        <v>31.29865373050101</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -4574,7 +4574,7 @@
         <v>523</v>
       </c>
       <c r="B525">
-        <v>10.03066310760095</v>
+        <v>6.668576737396317</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -4582,7 +4582,7 @@
         <v>524</v>
       </c>
       <c r="B526">
-        <v>3.962539675210756</v>
+        <v>5.134969158358165</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -4590,7 +4590,7 @@
         <v>525</v>
       </c>
       <c r="B527">
-        <v>6.690436342800367</v>
+        <v>7.338910988520197</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -4598,7 +4598,7 @@
         <v>526</v>
       </c>
       <c r="B528">
-        <v>15.02427506917687</v>
+        <v>3.259001485742753</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -4606,7 +4606,7 @@
         <v>527</v>
       </c>
       <c r="B529">
-        <v>8.460862152189994</v>
+        <v>5.335267979913627</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -4614,7 +4614,7 @@
         <v>528</v>
       </c>
       <c r="B530">
-        <v>7.891438712577983</v>
+        <v>7.087776057743007</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -4622,7 +4622,7 @@
         <v>529</v>
       </c>
       <c r="B531">
-        <v>8.286168717809668</v>
+        <v>4.268894497166691</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -4630,7 +4630,7 @@
         <v>530</v>
       </c>
       <c r="B532">
-        <v>14.32216192348281</v>
+        <v>4.860839654006991</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -4638,7 +4638,7 @@
         <v>531</v>
       </c>
       <c r="B533">
-        <v>4.676104251698568</v>
+        <v>8.373125217983889</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -4646,7 +4646,7 @@
         <v>532</v>
       </c>
       <c r="B534">
-        <v>27.84385432530685</v>
+        <v>7.883907248031024</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -4654,7 +4654,7 @@
         <v>533</v>
       </c>
       <c r="B535">
-        <v>1.753087362082211</v>
+        <v>6.79952658913547</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -4662,7 +4662,7 @@
         <v>534</v>
       </c>
       <c r="B536">
-        <v>11.7452549484244</v>
+        <v>3.681792566039474</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -4670,7 +4670,7 @@
         <v>535</v>
       </c>
       <c r="B537">
-        <v>6.141992746794062</v>
+        <v>14.19110426943957</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -4678,7 +4678,7 @@
         <v>536</v>
       </c>
       <c r="B538">
-        <v>2.95960428693695</v>
+        <v>4.96455541399484</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -4686,7 +4686,7 @@
         <v>537</v>
       </c>
       <c r="B539">
-        <v>10.34588648468937</v>
+        <v>5.320234595771964</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -4694,7 +4694,7 @@
         <v>538</v>
       </c>
       <c r="B540">
-        <v>5.969909841648966</v>
+        <v>5.390871324045833</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -4702,7 +4702,7 @@
         <v>539</v>
       </c>
       <c r="B541">
-        <v>7.287355697458072</v>
+        <v>6.020536326913977</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -4710,7 +4710,7 @@
         <v>540</v>
       </c>
       <c r="B542">
-        <v>14.87868940117084</v>
+        <v>5.370632910756413</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -4718,7 +4718,7 @@
         <v>541</v>
       </c>
       <c r="B543">
-        <v>4.535638036128899</v>
+        <v>9.426488025106007</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -4726,7 +4726,7 @@
         <v>542</v>
       </c>
       <c r="B544">
-        <v>3.20616245931493</v>
+        <v>6.500644292740984</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -4734,7 +4734,7 @@
         <v>543</v>
       </c>
       <c r="B545">
-        <v>4.681824396662451</v>
+        <v>5.105219703622908</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -4742,7 +4742,7 @@
         <v>544</v>
       </c>
       <c r="B546">
-        <v>7.688208332694302</v>
+        <v>5.956550472240306</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -4750,7 +4750,7 @@
         <v>545</v>
       </c>
       <c r="B547">
-        <v>4.647405904644494</v>
+        <v>2.660370162788141</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -4758,7 +4758,7 @@
         <v>546</v>
       </c>
       <c r="B548">
-        <v>6.758230421039907</v>
+        <v>5.080310903991013</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -4766,7 +4766,7 @@
         <v>547</v>
       </c>
       <c r="B549">
-        <v>18.31630854173925</v>
+        <v>9.269996105246506</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -4774,7 +4774,7 @@
         <v>548</v>
       </c>
       <c r="B550">
-        <v>9.369347550985161</v>
+        <v>6.01230928034332</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -4782,7 +4782,7 @@
         <v>549</v>
       </c>
       <c r="B551">
-        <v>5.164913569549223</v>
+        <v>21.19164238602187</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -4790,7 +4790,7 @@
         <v>550</v>
       </c>
       <c r="B552">
-        <v>10.5807098915569</v>
+        <v>27.77889927156443</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -4798,7 +4798,7 @@
         <v>551</v>
       </c>
       <c r="B553">
-        <v>11.6440556011066</v>
+        <v>15.44033565276736</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -4806,7 +4806,7 @@
         <v>552</v>
       </c>
       <c r="B554">
-        <v>4.87411535537016</v>
+        <v>9.174543198294717</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -4814,7 +4814,7 @@
         <v>553</v>
       </c>
       <c r="B555">
-        <v>9.311536344380265</v>
+        <v>12.05936646192664</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -4822,7 +4822,7 @@
         <v>554</v>
       </c>
       <c r="B556">
-        <v>3.490434171000029</v>
+        <v>8.155876574716551</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -4830,7 +4830,7 @@
         <v>555</v>
       </c>
       <c r="B557">
-        <v>8.765556572062986</v>
+        <v>7.516174328957362</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -4838,7 +4838,7 @@
         <v>556</v>
       </c>
       <c r="B558">
-        <v>7.439416099203864</v>
+        <v>7.778205673797948</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -4846,7 +4846,7 @@
         <v>557</v>
       </c>
       <c r="B559">
-        <v>7.132969296080947</v>
+        <v>3.868852883631813</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -4854,7 +4854,7 @@
         <v>558</v>
       </c>
       <c r="B560">
-        <v>7.389754735891833</v>
+        <v>5.292640676733955</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -4862,7 +4862,7 @@
         <v>559</v>
       </c>
       <c r="B561">
-        <v>5.832026317275362</v>
+        <v>10.59922269163681</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -4870,7 +4870,7 @@
         <v>560</v>
       </c>
       <c r="B562">
-        <v>3.464292618863972</v>
+        <v>1.822533670219832</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -4878,7 +4878,7 @@
         <v>561</v>
       </c>
       <c r="B563">
-        <v>14.61381721488022</v>
+        <v>4.917488887657202</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -4886,7 +4886,7 @@
         <v>562</v>
       </c>
       <c r="B564">
-        <v>10.20480799167366</v>
+        <v>6.403243349240197</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -4894,7 +4894,7 @@
         <v>563</v>
       </c>
       <c r="B565">
-        <v>13.66304792125671</v>
+        <v>11.19940571249816</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -4902,7 +4902,7 @@
         <v>564</v>
       </c>
       <c r="B566">
-        <v>8.027892266456366</v>
+        <v>11.5233924133116</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -4910,7 +4910,7 @@
         <v>565</v>
       </c>
       <c r="B567">
-        <v>12.51240157107284</v>
+        <v>9.901196798203006</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -4918,7 +4918,7 @@
         <v>566</v>
       </c>
       <c r="B568">
-        <v>14.92158755081968</v>
+        <v>10.51837747029477</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -4926,7 +4926,7 @@
         <v>567</v>
       </c>
       <c r="B569">
-        <v>8.949461284418808</v>
+        <v>7.055744331416808</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -4934,7 +4934,7 @@
         <v>568</v>
       </c>
       <c r="B570">
-        <v>10.18694417164228</v>
+        <v>14.49436125099748</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -4942,7 +4942,7 @@
         <v>569</v>
       </c>
       <c r="B571">
-        <v>9.607028404275598</v>
+        <v>9.072414753480164</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -4950,7 +4950,7 @@
         <v>570</v>
       </c>
       <c r="B572">
-        <v>6.240967275982876</v>
+        <v>10.50775585762854</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -4958,7 +4958,7 @@
         <v>571</v>
       </c>
       <c r="B573">
-        <v>18.19041931373676</v>
+        <v>4.90717228770647</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -4966,7 +4966,7 @@
         <v>572</v>
       </c>
       <c r="B574">
-        <v>11.29505043605386</v>
+        <v>17.46880916123053</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -4974,7 +4974,7 @@
         <v>573</v>
       </c>
       <c r="B575">
-        <v>6.991125927566081</v>
+        <v>6.524847897982116</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -4982,7 +4982,7 @@
         <v>574</v>
       </c>
       <c r="B576">
-        <v>10.01148202289843</v>
+        <v>9.044203860020025</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -4990,7 +4990,7 @@
         <v>575</v>
       </c>
       <c r="B577">
-        <v>4.88033247730068</v>
+        <v>4.693596070417335</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -4998,7 +4998,7 @@
         <v>576</v>
       </c>
       <c r="B578">
-        <v>5.560254227555834</v>
+        <v>8.833303817123317</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -5006,7 +5006,7 @@
         <v>577</v>
       </c>
       <c r="B579">
-        <v>6.712466084728921</v>
+        <v>5.675294779836475</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -5014,7 +5014,7 @@
         <v>578</v>
       </c>
       <c r="B580">
-        <v>9.391774578738742</v>
+        <v>3.371266990336527</v>
       </c>
     </row>
     <row r="581" spans="1:2">
@@ -5022,7 +5022,7 @@
         <v>579</v>
       </c>
       <c r="B581">
-        <v>9.627243547203749</v>
+        <v>21.5674396929778</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -5030,7 +5030,7 @@
         <v>580</v>
       </c>
       <c r="B582">
-        <v>7.933478846909215</v>
+        <v>8.053193854268734</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -5038,7 +5038,7 @@
         <v>581</v>
       </c>
       <c r="B583">
-        <v>6.373174862960695</v>
+        <v>7.914471517078208</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -5046,7 +5046,7 @@
         <v>582</v>
       </c>
       <c r="B584">
-        <v>7.357792867750568</v>
+        <v>4.072399971713935</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -5054,7 +5054,7 @@
         <v>583</v>
       </c>
       <c r="B585">
-        <v>7.013937337012278</v>
+        <v>12.71136942355891</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -5062,7 +5062,7 @@
         <v>584</v>
       </c>
       <c r="B586">
-        <v>5.403028468049144</v>
+        <v>14.67221142398452</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -5070,7 +5070,7 @@
         <v>585</v>
       </c>
       <c r="B587">
-        <v>5.543639800757454</v>
+        <v>4.465815228990372</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -5078,7 +5078,7 @@
         <v>586</v>
       </c>
       <c r="B588">
-        <v>8.076248331397005</v>
+        <v>6.766785402803801</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -5086,7 +5086,7 @@
         <v>587</v>
       </c>
       <c r="B589">
-        <v>21.30847560405479</v>
+        <v>3.842187370385595</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -5094,7 +5094,7 @@
         <v>588</v>
       </c>
       <c r="B590">
-        <v>5.736851248577706</v>
+        <v>9.785027259928722</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -5102,7 +5102,7 @@
         <v>589</v>
       </c>
       <c r="B591">
-        <v>12.24194355888252</v>
+        <v>7.781219564329453</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -5110,7 +5110,7 @@
         <v>590</v>
       </c>
       <c r="B592">
-        <v>8.206359098284734</v>
+        <v>4.914435258366324</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -5118,7 +5118,7 @@
         <v>591</v>
       </c>
       <c r="B593">
-        <v>8.277096442071691</v>
+        <v>6.142210653561687</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -5126,7 +5126,7 @@
         <v>592</v>
       </c>
       <c r="B594">
-        <v>4.523360251800728</v>
+        <v>12.10407251098669</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -5134,7 +5134,7 @@
         <v>593</v>
       </c>
       <c r="B595">
-        <v>5.942400221099413</v>
+        <v>4.871757504451281</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -5142,7 +5142,7 @@
         <v>594</v>
       </c>
       <c r="B596">
-        <v>3.202395370701935</v>
+        <v>15.92562512893095</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -5150,7 +5150,7 @@
         <v>595</v>
       </c>
       <c r="B597">
-        <v>3.934887271270384</v>
+        <v>3.274741047809432</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -5158,7 +5158,7 @@
         <v>596</v>
       </c>
       <c r="B598">
-        <v>5.658106031128349</v>
+        <v>4.494354018763611</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -5166,7 +5166,7 @@
         <v>597</v>
       </c>
       <c r="B599">
-        <v>27.66340502434129</v>
+        <v>14.65662353295824</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -5174,7 +5174,7 @@
         <v>598</v>
       </c>
       <c r="B600">
-        <v>9.107666331361076</v>
+        <v>5.693723465321389</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -5182,7 +5182,7 @@
         <v>599</v>
       </c>
       <c r="B601">
-        <v>5.755347223992639</v>
+        <v>11.65692236209676</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -5190,7 +5190,7 @@
         <v>600</v>
       </c>
       <c r="B602">
-        <v>10.01873365802009</v>
+        <v>3.314247369901214</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -5198,7 +5198,7 @@
         <v>601</v>
       </c>
       <c r="B603">
-        <v>5.246632961296575</v>
+        <v>10.07427250660653</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -5206,7 +5206,7 @@
         <v>602</v>
       </c>
       <c r="B604">
-        <v>6.686080449524676</v>
+        <v>8.435849036510019</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -5214,7 +5214,7 @@
         <v>603</v>
       </c>
       <c r="B605">
-        <v>5.417031245829177</v>
+        <v>8.554115650964125</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -5222,7 +5222,7 @@
         <v>604</v>
       </c>
       <c r="B606">
-        <v>3.615386367184767</v>
+        <v>13.32480703165649</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -5230,7 +5230,7 @@
         <v>605</v>
       </c>
       <c r="B607">
-        <v>6.392912481777438</v>
+        <v>6.465410534342307</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -5238,7 +5238,7 @@
         <v>606</v>
       </c>
       <c r="B608">
-        <v>5.853550777390444</v>
+        <v>6.491641145085712</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -5246,7 +5246,7 @@
         <v>607</v>
       </c>
       <c r="B609">
-        <v>10.55448263213775</v>
+        <v>15.26648791185393</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -5254,7 +5254,7 @@
         <v>608</v>
       </c>
       <c r="B610">
-        <v>10.14895630945878</v>
+        <v>5.399470814023954</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -5262,7 +5262,7 @@
         <v>609</v>
       </c>
       <c r="B611">
-        <v>9.439200607961666</v>
+        <v>6.823287490581868</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -5270,7 +5270,7 @@
         <v>610</v>
       </c>
       <c r="B612">
-        <v>7.607550559419543</v>
+        <v>9.672151123165797</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -5278,7 +5278,7 @@
         <v>611</v>
       </c>
       <c r="B613">
-        <v>8.759174843933623</v>
+        <v>10.64707489831825</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -5286,7 +5286,7 @@
         <v>612</v>
       </c>
       <c r="B614">
-        <v>3.961210562780498</v>
+        <v>3.368783691967748</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -5294,7 +5294,7 @@
         <v>613</v>
       </c>
       <c r="B615">
-        <v>2.950952671760374</v>
+        <v>6.678707275553341</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -5302,7 +5302,7 @@
         <v>614</v>
       </c>
       <c r="B616">
-        <v>11.40811024816008</v>
+        <v>11.00651589898762</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -5310,7 +5310,7 @@
         <v>615</v>
       </c>
       <c r="B617">
-        <v>12.85376458136091</v>
+        <v>5.550042929564428</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -5318,7 +5318,7 @@
         <v>616</v>
       </c>
       <c r="B618">
-        <v>9.922839737360428</v>
+        <v>6.172156820907915</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -5326,7 +5326,7 @@
         <v>617</v>
       </c>
       <c r="B619">
-        <v>9.610232213540403</v>
+        <v>6.305311247492706</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -5334,7 +5334,7 @@
         <v>618</v>
       </c>
       <c r="B620">
-        <v>10.36429617511372</v>
+        <v>6.973525582885469</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -5342,7 +5342,7 @@
         <v>619</v>
       </c>
       <c r="B621">
-        <v>8.525761178811056</v>
+        <v>7.776071598528193</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -5350,7 +5350,7 @@
         <v>620</v>
       </c>
       <c r="B622">
-        <v>7.689390214964542</v>
+        <v>8.330523485261507</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -5358,7 +5358,7 @@
         <v>621</v>
       </c>
       <c r="B623">
-        <v>3.93923358557008</v>
+        <v>4.729102489306544</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -5366,7 +5366,7 @@
         <v>622</v>
       </c>
       <c r="B624">
-        <v>16.66908624310104</v>
+        <v>3.30051116744199</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -5374,7 +5374,7 @@
         <v>623</v>
       </c>
       <c r="B625">
-        <v>6.279600741097553</v>
+        <v>3.771427898782773</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -5382,7 +5382,7 @@
         <v>624</v>
       </c>
       <c r="B626">
-        <v>5.324699965936566</v>
+        <v>16.37654218304796</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -5390,7 +5390,7 @@
         <v>625</v>
       </c>
       <c r="B627">
-        <v>6.867538422803103</v>
+        <v>9.140651520081223</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -5398,7 +5398,7 @@
         <v>626</v>
       </c>
       <c r="B628">
-        <v>4.632851142513868</v>
+        <v>17.48538932808601</v>
       </c>
     </row>
     <row r="629" spans="1:2">
@@ -5406,7 +5406,7 @@
         <v>627</v>
       </c>
       <c r="B629">
-        <v>9.992373273321519</v>
+        <v>2.870021398552044</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -5414,7 +5414,7 @@
         <v>628</v>
       </c>
       <c r="B630">
-        <v>10.13666616884782</v>
+        <v>6.783298211874778</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -5422,7 +5422,7 @@
         <v>629</v>
       </c>
       <c r="B631">
-        <v>6.909068211958139</v>
+        <v>4.472939941323438</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -5430,7 +5430,7 @@
         <v>630</v>
       </c>
       <c r="B632">
-        <v>3.664968439391775</v>
+        <v>8.637502805124562</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -5438,7 +5438,7 @@
         <v>631</v>
       </c>
       <c r="B633">
-        <v>9.502583120717201</v>
+        <v>15.75853021872044</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -5446,7 +5446,7 @@
         <v>632</v>
       </c>
       <c r="B634">
-        <v>11.8847755895562</v>
+        <v>16.22874325600201</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -5454,7 +5454,7 @@
         <v>633</v>
       </c>
       <c r="B635">
-        <v>8.474769227832118</v>
+        <v>20.93001886639159</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -5462,7 +5462,7 @@
         <v>634</v>
       </c>
       <c r="B636">
-        <v>4.196790371734541</v>
+        <v>4.904733271931264</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -5470,7 +5470,7 @@
         <v>635</v>
       </c>
       <c r="B637">
-        <v>2.400245508457051</v>
+        <v>7.311744807637902</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -5478,7 +5478,7 @@
         <v>636</v>
       </c>
       <c r="B638">
-        <v>5.907156806058733</v>
+        <v>7.266734807421289</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -5486,7 +5486,7 @@
         <v>637</v>
       </c>
       <c r="B639">
-        <v>12.24007687997685</v>
+        <v>8.254889195456711</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -5494,7 +5494,7 @@
         <v>638</v>
       </c>
       <c r="B640">
-        <v>9.967041384350297</v>
+        <v>7.144426115166196</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -5502,7 +5502,7 @@
         <v>639</v>
       </c>
       <c r="B641">
-        <v>6.398647589482617</v>
+        <v>3.271619132407625</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -5510,7 +5510,7 @@
         <v>640</v>
       </c>
       <c r="B642">
-        <v>7.467772821987968</v>
+        <v>10.27025685135249</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -5518,7 +5518,7 @@
         <v>641</v>
       </c>
       <c r="B643">
-        <v>5.880505025638938</v>
+        <v>4.987668462939229</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -5526,7 +5526,7 @@
         <v>642</v>
       </c>
       <c r="B644">
-        <v>12.36135556772735</v>
+        <v>5.821105896076021</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -5534,7 +5534,7 @@
         <v>643</v>
       </c>
       <c r="B645">
-        <v>4.611137755015208</v>
+        <v>5.180275046701561</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -5542,7 +5542,7 @@
         <v>644</v>
       </c>
       <c r="B646">
-        <v>4.996943451306971</v>
+        <v>5.553081259217367</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -5550,7 +5550,7 @@
         <v>645</v>
       </c>
       <c r="B647">
-        <v>14.95310161701095</v>
+        <v>13.58683745176204</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -5558,7 +5558,7 @@
         <v>646</v>
       </c>
       <c r="B648">
-        <v>6.737148439454542</v>
+        <v>10.89328766447204</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -5566,7 +5566,7 @@
         <v>647</v>
       </c>
       <c r="B649">
-        <v>11.80319714199671</v>
+        <v>5.774475463633967</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -5574,7 +5574,7 @@
         <v>648</v>
       </c>
       <c r="B650">
-        <v>4.035065298450474</v>
+        <v>6.540468697124439</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -5582,7 +5582,7 @@
         <v>649</v>
       </c>
       <c r="B651">
-        <v>12.1565776012249</v>
+        <v>5.302036531112699</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -5590,7 +5590,7 @@
         <v>650</v>
       </c>
       <c r="B652">
-        <v>4.706408170517171</v>
+        <v>6.533410667263105</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -5598,7 +5598,7 @@
         <v>651</v>
       </c>
       <c r="B653">
-        <v>2.878345991187891</v>
+        <v>5.075886596946441</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -5606,7 +5606,7 @@
         <v>652</v>
       </c>
       <c r="B654">
-        <v>12.911522038948</v>
+        <v>3.95365255254396</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -5614,7 +5614,7 @@
         <v>653</v>
       </c>
       <c r="B655">
-        <v>6.45878023032661</v>
+        <v>5.526202343041346</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -5622,7 +5622,7 @@
         <v>654</v>
       </c>
       <c r="B656">
-        <v>10.05026309418964</v>
+        <v>9.943516670724614</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -5630,7 +5630,7 @@
         <v>655</v>
       </c>
       <c r="B657">
-        <v>11.28725291188367</v>
+        <v>17.44967677667438</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -5638,7 +5638,7 @@
         <v>656</v>
       </c>
       <c r="B658">
-        <v>6.497740195393977</v>
+        <v>11.27841987813725</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -5646,7 +5646,7 @@
         <v>657</v>
       </c>
       <c r="B659">
-        <v>7.413319495900402</v>
+        <v>3.98757302533815</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -5654,7 +5654,7 @@
         <v>658</v>
       </c>
       <c r="B660">
-        <v>4.90498142555922</v>
+        <v>5.703213545807722</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -5662,7 +5662,7 @@
         <v>659</v>
       </c>
       <c r="B661">
-        <v>5.772365439846119</v>
+        <v>10.18972661089625</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -5670,7 +5670,7 @@
         <v>660</v>
       </c>
       <c r="B662">
-        <v>3.633582569433143</v>
+        <v>4.956592185318155</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -5678,7 +5678,7 @@
         <v>661</v>
       </c>
       <c r="B663">
-        <v>4.460933941640944</v>
+        <v>8.894583142988052</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -5686,7 +5686,7 @@
         <v>662</v>
       </c>
       <c r="B664">
-        <v>12.86176394932733</v>
+        <v>12.39739662469158</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -5694,7 +5694,7 @@
         <v>663</v>
       </c>
       <c r="B665">
-        <v>5.642987893671119</v>
+        <v>8.018883111939779</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -5702,7 +5702,7 @@
         <v>664</v>
       </c>
       <c r="B666">
-        <v>2.785557871125288</v>
+        <v>11.04161675641983</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -5710,7 +5710,7 @@
         <v>665</v>
       </c>
       <c r="B667">
-        <v>9.746480189620419</v>
+        <v>12.70419237414126</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -5718,7 +5718,7 @@
         <v>666</v>
       </c>
       <c r="B668">
-        <v>6.831317782775749</v>
+        <v>10.03152014160104</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -5726,7 +5726,7 @@
         <v>667</v>
       </c>
       <c r="B669">
-        <v>6.57213401548472</v>
+        <v>10.06457700062044</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -5734,7 +5734,7 @@
         <v>668</v>
       </c>
       <c r="B670">
-        <v>5.160847216804541</v>
+        <v>5.132227314555805</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -5742,7 +5742,7 @@
         <v>669</v>
       </c>
       <c r="B671">
-        <v>9.953848182945597</v>
+        <v>6.436687694126429</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -5750,7 +5750,7 @@
         <v>670</v>
       </c>
       <c r="B672">
-        <v>8.351162271893894</v>
+        <v>11.74440594829714</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -5758,7 +5758,7 @@
         <v>671</v>
       </c>
       <c r="B673">
-        <v>8.167851624520289</v>
+        <v>18.36540545979856</v>
       </c>
     </row>
     <row r="674" spans="1:2">
@@ -5766,7 +5766,7 @@
         <v>672</v>
       </c>
       <c r="B674">
-        <v>11.6451210463903</v>
+        <v>16.3981952607293</v>
       </c>
     </row>
     <row r="675" spans="1:2">
@@ -5774,7 +5774,7 @@
         <v>673</v>
       </c>
       <c r="B675">
-        <v>6.370464250169144</v>
+        <v>16.8934353128032</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -5782,7 +5782,7 @@
         <v>674</v>
       </c>
       <c r="B676">
-        <v>7.189393788500013</v>
+        <v>16.56389580767467</v>
       </c>
     </row>
     <row r="677" spans="1:2">
@@ -5790,7 +5790,7 @@
         <v>675</v>
       </c>
       <c r="B677">
-        <v>3.061123103215699</v>
+        <v>7.432402209133413</v>
       </c>
     </row>
     <row r="678" spans="1:2">
@@ -5798,7 +5798,7 @@
         <v>676</v>
       </c>
       <c r="B678">
-        <v>10.14476977546163</v>
+        <v>7.632482273609674</v>
       </c>
     </row>
     <row r="679" spans="1:2">
@@ -5806,7 +5806,7 @@
         <v>677</v>
       </c>
       <c r="B679">
-        <v>9.613688230976441</v>
+        <v>9.614462029500217</v>
       </c>
     </row>
     <row r="680" spans="1:2">
@@ -5814,7 +5814,7 @@
         <v>678</v>
       </c>
       <c r="B680">
-        <v>14.75914512677388</v>
+        <v>11.904168690643</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -5822,7 +5822,7 @@
         <v>679</v>
       </c>
       <c r="B681">
-        <v>4.745413032408945</v>
+        <v>3.773341677233155</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -5830,7 +5830,7 @@
         <v>680</v>
       </c>
       <c r="B682">
-        <v>8.613840845939102</v>
+        <v>9.801678536448231</v>
       </c>
     </row>
     <row r="683" spans="1:2">
@@ -5838,7 +5838,7 @@
         <v>681</v>
       </c>
       <c r="B683">
-        <v>10.48293219005717</v>
+        <v>8.044376127519051</v>
       </c>
     </row>
     <row r="684" spans="1:2">
@@ -5846,7 +5846,7 @@
         <v>682</v>
       </c>
       <c r="B684">
-        <v>4.227525080496317</v>
+        <v>3.6457811669667</v>
       </c>
     </row>
     <row r="685" spans="1:2">
@@ -5854,7 +5854,7 @@
         <v>683</v>
       </c>
       <c r="B685">
-        <v>10.4468972151351</v>
+        <v>2.980846576395851</v>
       </c>
     </row>
     <row r="686" spans="1:2">
@@ -5862,7 +5862,7 @@
         <v>684</v>
       </c>
       <c r="B686">
-        <v>5.396241799969816</v>
+        <v>6.553332950730254</v>
       </c>
     </row>
     <row r="687" spans="1:2">
@@ -5870,7 +5870,7 @@
         <v>685</v>
       </c>
       <c r="B687">
-        <v>6.715184675078808</v>
+        <v>5.543755067207454</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -5878,7 +5878,7 @@
         <v>686</v>
       </c>
       <c r="B688">
-        <v>8.238175559183155</v>
+        <v>4.594200658649558</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -5886,7 +5886,7 @@
         <v>687</v>
       </c>
       <c r="B689">
-        <v>7.991219848195296</v>
+        <v>17.21637260857938</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -5894,7 +5894,7 @@
         <v>688</v>
       </c>
       <c r="B690">
-        <v>11.17852742814857</v>
+        <v>7.052832554430908</v>
       </c>
     </row>
     <row r="691" spans="1:2">
@@ -5902,7 +5902,7 @@
         <v>689</v>
       </c>
       <c r="B691">
-        <v>13.49545894898682</v>
+        <v>15.04784655893967</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -5910,7 +5910,7 @@
         <v>690</v>
       </c>
       <c r="B692">
-        <v>5.901006741615444</v>
+        <v>17.27097915787448</v>
       </c>
     </row>
     <row r="693" spans="1:2">
@@ -5918,7 +5918,7 @@
         <v>691</v>
       </c>
       <c r="B693">
-        <v>6.83535093146929</v>
+        <v>9.892037395874263</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -5926,7 +5926,7 @@
         <v>692</v>
       </c>
       <c r="B694">
-        <v>5.342171134644446</v>
+        <v>16.97824294759073</v>
       </c>
     </row>
     <row r="695" spans="1:2">
@@ -5934,7 +5934,7 @@
         <v>693</v>
       </c>
       <c r="B695">
-        <v>5.281289399086971</v>
+        <v>8.124733899160992</v>
       </c>
     </row>
     <row r="696" spans="1:2">
@@ -5942,7 +5942,7 @@
         <v>694</v>
       </c>
       <c r="B696">
-        <v>8.141107946084341</v>
+        <v>3.873490901274409</v>
       </c>
     </row>
     <row r="697" spans="1:2">
@@ -5950,7 +5950,7 @@
         <v>695</v>
       </c>
       <c r="B697">
-        <v>3.523573195304751</v>
+        <v>7.081745789269384</v>
       </c>
     </row>
     <row r="698" spans="1:2">
@@ -5958,7 +5958,7 @@
         <v>696</v>
       </c>
       <c r="B698">
-        <v>7.593341394091312</v>
+        <v>19.08889634024936</v>
       </c>
     </row>
     <row r="699" spans="1:2">
@@ -5966,7 +5966,7 @@
         <v>697</v>
       </c>
       <c r="B699">
-        <v>9.587181471120838</v>
+        <v>4.265790961318561</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -5974,7 +5974,7 @@
         <v>698</v>
       </c>
       <c r="B700">
-        <v>16.54860395696002</v>
+        <v>4.193801655102956</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -5982,7 +5982,7 @@
         <v>699</v>
       </c>
       <c r="B701">
-        <v>16.80446544453524</v>
+        <v>13.82525337713607</v>
       </c>
     </row>
     <row r="702" spans="1:2">
@@ -5990,7 +5990,7 @@
         <v>700</v>
       </c>
       <c r="B702">
-        <v>21.47216341600683</v>
+        <v>2.236572508121645</v>
       </c>
     </row>
     <row r="703" spans="1:2">
@@ -5998,7 +5998,7 @@
         <v>701</v>
       </c>
       <c r="B703">
-        <v>5.398357328599555</v>
+        <v>6.20637125886545</v>
       </c>
     </row>
     <row r="704" spans="1:2">
@@ -6006,7 +6006,7 @@
         <v>702</v>
       </c>
       <c r="B704">
-        <v>6.367618493550063</v>
+        <v>10.04386444140498</v>
       </c>
     </row>
     <row r="705" spans="1:2">
@@ -6014,7 +6014,7 @@
         <v>703</v>
       </c>
       <c r="B705">
-        <v>8.113985942166719</v>
+        <v>5.983125930460591</v>
       </c>
     </row>
     <row r="706" spans="1:2">
@@ -6022,7 +6022,7 @@
         <v>704</v>
       </c>
       <c r="B706">
-        <v>11.83222039406124</v>
+        <v>9.499116490600208</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -6030,7 +6030,7 @@
         <v>705</v>
       </c>
       <c r="B707">
-        <v>15.55950253917402</v>
+        <v>7.972594290946165</v>
       </c>
     </row>
     <row r="708" spans="1:2">
@@ -6038,7 +6038,7 @@
         <v>706</v>
       </c>
       <c r="B708">
-        <v>6.298478956908401</v>
+        <v>5.800563715584965</v>
       </c>
     </row>
     <row r="709" spans="1:2">
@@ -6046,7 +6046,7 @@
         <v>707</v>
       </c>
       <c r="B709">
-        <v>3.604430679409651</v>
+        <v>19.11598623537884</v>
       </c>
     </row>
     <row r="710" spans="1:2">
@@ -6054,7 +6054,7 @@
         <v>708</v>
       </c>
       <c r="B710">
-        <v>9.810660944188719</v>
+        <v>9.451244053108178</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -6062,7 +6062,7 @@
         <v>709</v>
       </c>
       <c r="B711">
-        <v>6.098195234831353</v>
+        <v>23.21697094320232</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -6070,7 +6070,7 @@
         <v>710</v>
       </c>
       <c r="B712">
-        <v>3.971316383759715</v>
+        <v>7.655556194204756</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -6078,7 +6078,7 @@
         <v>711</v>
       </c>
       <c r="B713">
-        <v>7.870268736692837</v>
+        <v>6.927571722200368</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -6086,7 +6086,7 @@
         <v>712</v>
       </c>
       <c r="B714">
-        <v>10.1858188257313</v>
+        <v>6.10152663765447</v>
       </c>
     </row>
     <row r="715" spans="1:2">
@@ -6094,7 +6094,7 @@
         <v>713</v>
       </c>
       <c r="B715">
-        <v>8.97654685415705</v>
+        <v>2.859866443113229</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -6102,7 +6102,7 @@
         <v>714</v>
       </c>
       <c r="B716">
-        <v>4.963939196437738</v>
+        <v>14.93265685008046</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -6110,7 +6110,7 @@
         <v>715</v>
       </c>
       <c r="B717">
-        <v>4.673004506716089</v>
+        <v>7.918826469949787</v>
       </c>
     </row>
     <row r="718" spans="1:2">
@@ -6118,7 +6118,7 @@
         <v>716</v>
       </c>
       <c r="B718">
-        <v>12.98642937948116</v>
+        <v>5.001716789277101</v>
       </c>
     </row>
     <row r="719" spans="1:2">
@@ -6126,7 +6126,7 @@
         <v>717</v>
       </c>
       <c r="B719">
-        <v>7.730475253408194</v>
+        <v>3.808335684289639</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -6134,7 +6134,7 @@
         <v>718</v>
       </c>
       <c r="B720">
-        <v>4.111738992763311</v>
+        <v>9.466571532731651</v>
       </c>
     </row>
     <row r="721" spans="1:2">
@@ -6142,7 +6142,7 @@
         <v>719</v>
       </c>
       <c r="B721">
-        <v>8.178774466371273</v>
+        <v>3.944009591633763</v>
       </c>
     </row>
     <row r="722" spans="1:2">
@@ -6150,7 +6150,7 @@
         <v>720</v>
       </c>
       <c r="B722">
-        <v>7.004785105558279</v>
+        <v>6.510103628470763</v>
       </c>
     </row>
     <row r="723" spans="1:2">
@@ -6158,7 +6158,7 @@
         <v>721</v>
       </c>
       <c r="B723">
-        <v>7.457450829802422</v>
+        <v>2.580493839577473</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -6166,7 +6166,7 @@
         <v>722</v>
       </c>
       <c r="B724">
-        <v>10.33777732900004</v>
+        <v>9.325506539469664</v>
       </c>
     </row>
     <row r="725" spans="1:2">
@@ -6174,7 +6174,7 @@
         <v>723</v>
       </c>
       <c r="B725">
-        <v>9.566668385533763</v>
+        <v>12.98464240223154</v>
       </c>
     </row>
     <row r="726" spans="1:2">
@@ -6182,7 +6182,7 @@
         <v>724</v>
       </c>
       <c r="B726">
-        <v>10.4899314203436</v>
+        <v>4.401245948397209</v>
       </c>
     </row>
     <row r="727" spans="1:2">
@@ -6190,7 +6190,7 @@
         <v>725</v>
       </c>
       <c r="B727">
-        <v>9.012239551868666</v>
+        <v>6.072785713875056</v>
       </c>
     </row>
     <row r="728" spans="1:2">
@@ -6198,7 +6198,7 @@
         <v>726</v>
       </c>
       <c r="B728">
-        <v>8.006673496851127</v>
+        <v>8.823872410877321</v>
       </c>
     </row>
     <row r="729" spans="1:2">
@@ -6206,7 +6206,7 @@
         <v>727</v>
       </c>
       <c r="B729">
-        <v>8.926348411025891</v>
+        <v>12.76478403723628</v>
       </c>
     </row>
     <row r="730" spans="1:2">
@@ -6214,7 +6214,7 @@
         <v>728</v>
       </c>
       <c r="B730">
-        <v>11.01972771072096</v>
+        <v>10.11175230226318</v>
       </c>
     </row>
     <row r="731" spans="1:2">
@@ -6222,7 +6222,7 @@
         <v>729</v>
       </c>
       <c r="B731">
-        <v>2.752566484763607</v>
+        <v>5.966874068533691</v>
       </c>
     </row>
     <row r="732" spans="1:2">
@@ -6230,7 +6230,7 @@
         <v>730</v>
       </c>
       <c r="B732">
-        <v>9.298774652225012</v>
+        <v>15.63539754474362</v>
       </c>
     </row>
     <row r="733" spans="1:2">
@@ -6238,7 +6238,7 @@
         <v>731</v>
       </c>
       <c r="B733">
-        <v>8.233584252476815</v>
+        <v>7.890394449525029</v>
       </c>
     </row>
     <row r="734" spans="1:2">
@@ -6246,7 +6246,7 @@
         <v>732</v>
       </c>
       <c r="B734">
-        <v>4.042907952821081</v>
+        <v>3.525624521038673</v>
       </c>
     </row>
     <row r="735" spans="1:2">
@@ -6254,7 +6254,7 @@
         <v>733</v>
       </c>
       <c r="B735">
-        <v>5.127022616506218</v>
+        <v>9.565831837421156</v>
       </c>
     </row>
     <row r="736" spans="1:2">
@@ -6262,7 +6262,7 @@
         <v>734</v>
       </c>
       <c r="B736">
-        <v>4.097960661274699</v>
+        <v>3.423385891380192</v>
       </c>
     </row>
     <row r="737" spans="1:2">
@@ -6270,7 +6270,7 @@
         <v>735</v>
       </c>
       <c r="B737">
-        <v>12.90008473892562</v>
+        <v>3.565440991463716</v>
       </c>
     </row>
     <row r="738" spans="1:2">
@@ -6278,7 +6278,7 @@
         <v>736</v>
       </c>
       <c r="B738">
-        <v>5.548863253916432</v>
+        <v>4.679051767470824</v>
       </c>
     </row>
     <row r="739" spans="1:2">
@@ -6286,7 +6286,7 @@
         <v>737</v>
       </c>
       <c r="B739">
-        <v>13.11146453935798</v>
+        <v>7.91174841292228</v>
       </c>
     </row>
     <row r="740" spans="1:2">
@@ -6294,7 +6294,7 @@
         <v>738</v>
       </c>
       <c r="B740">
-        <v>5.079688205504896</v>
+        <v>8.754075568129329</v>
       </c>
     </row>
     <row r="741" spans="1:2">
@@ -6302,7 +6302,7 @@
         <v>739</v>
       </c>
       <c r="B741">
-        <v>7.922029153897475</v>
+        <v>11.62491664647243</v>
       </c>
     </row>
     <row r="742" spans="1:2">
@@ -6310,7 +6310,7 @@
         <v>740</v>
       </c>
       <c r="B742">
-        <v>5.014237589670549</v>
+        <v>11.33632329224097</v>
       </c>
     </row>
     <row r="743" spans="1:2">
@@ -6318,7 +6318,7 @@
         <v>741</v>
       </c>
       <c r="B743">
-        <v>10.27531263314774</v>
+        <v>18.54334244465645</v>
       </c>
     </row>
     <row r="744" spans="1:2">
@@ -6326,7 +6326,7 @@
         <v>742</v>
       </c>
       <c r="B744">
-        <v>8.137870391442426</v>
+        <v>5.927632823644798</v>
       </c>
     </row>
     <row r="745" spans="1:2">
@@ -6334,7 +6334,7 @@
         <v>743</v>
       </c>
       <c r="B745">
-        <v>6.862883487450262</v>
+        <v>15.69475889423242</v>
       </c>
     </row>
     <row r="746" spans="1:2">
@@ -6342,7 +6342,7 @@
         <v>744</v>
       </c>
       <c r="B746">
-        <v>15.56393067342373</v>
+        <v>10.40683721090116</v>
       </c>
     </row>
     <row r="747" spans="1:2">
@@ -6350,7 +6350,7 @@
         <v>745</v>
       </c>
       <c r="B747">
-        <v>5.501543090457099</v>
+        <v>7.386280451462844</v>
       </c>
     </row>
     <row r="748" spans="1:2">
@@ -6358,7 +6358,7 @@
         <v>746</v>
       </c>
       <c r="B748">
-        <v>2.916157976056682</v>
+        <v>6.589097277443131</v>
       </c>
     </row>
     <row r="749" spans="1:2">
@@ -6366,7 +6366,7 @@
         <v>747</v>
       </c>
       <c r="B749">
-        <v>10.96600912581088</v>
+        <v>3.199016094893937</v>
       </c>
     </row>
     <row r="750" spans="1:2">
@@ -6374,7 +6374,7 @@
         <v>748</v>
       </c>
       <c r="B750">
-        <v>19.61196731343907</v>
+        <v>10.6670827011906</v>
       </c>
     </row>
     <row r="751" spans="1:2">
@@ -6382,7 +6382,7 @@
         <v>749</v>
       </c>
       <c r="B751">
-        <v>3.40645821019557</v>
+        <v>7.132119311957191</v>
       </c>
     </row>
     <row r="752" spans="1:2">
@@ -6390,7 +6390,7 @@
         <v>750</v>
       </c>
       <c r="B752">
-        <v>2.487407627561412</v>
+        <v>2.656592804838203</v>
       </c>
     </row>
     <row r="753" spans="1:2">
@@ -6398,7 +6398,7 @@
         <v>751</v>
       </c>
       <c r="B753">
-        <v>4.298468069304923</v>
+        <v>4.339013195082051</v>
       </c>
     </row>
     <row r="754" spans="1:2">
@@ -6406,7 +6406,7 @@
         <v>752</v>
       </c>
       <c r="B754">
-        <v>15.4013287535141</v>
+        <v>5.431215542056377</v>
       </c>
     </row>
     <row r="755" spans="1:2">
@@ -6414,7 +6414,7 @@
         <v>753</v>
       </c>
       <c r="B755">
-        <v>9.951431610982167</v>
+        <v>5.694857311831182</v>
       </c>
     </row>
     <row r="756" spans="1:2">
@@ -6422,7 +6422,7 @@
         <v>754</v>
       </c>
       <c r="B756">
-        <v>15.48692781574534</v>
+        <v>5.50213663218109</v>
       </c>
     </row>
     <row r="757" spans="1:2">
@@ -6430,7 +6430,7 @@
         <v>755</v>
       </c>
       <c r="B757">
-        <v>15.51327308167784</v>
+        <v>10.74272164864118</v>
       </c>
     </row>
     <row r="758" spans="1:2">
@@ -6438,7 +6438,7 @@
         <v>756</v>
       </c>
       <c r="B758">
-        <v>5.527796600246703</v>
+        <v>14.19100312070391</v>
       </c>
     </row>
     <row r="759" spans="1:2">
@@ -6446,7 +6446,7 @@
         <v>757</v>
       </c>
       <c r="B759">
-        <v>18.23487569837625</v>
+        <v>3.408638076369462</v>
       </c>
     </row>
     <row r="760" spans="1:2">
@@ -6454,7 +6454,7 @@
         <v>758</v>
       </c>
       <c r="B760">
-        <v>11.4898055515248</v>
+        <v>6.363084370157424</v>
       </c>
     </row>
     <row r="761" spans="1:2">
@@ -6462,7 +6462,7 @@
         <v>759</v>
       </c>
       <c r="B761">
-        <v>5.013646163793168</v>
+        <v>7.997179328302154</v>
       </c>
     </row>
     <row r="762" spans="1:2">
@@ -6470,7 +6470,7 @@
         <v>760</v>
       </c>
       <c r="B762">
-        <v>3.090470347590875</v>
+        <v>7.930746507965043</v>
       </c>
     </row>
     <row r="763" spans="1:2">
@@ -6478,7 +6478,7 @@
         <v>761</v>
       </c>
       <c r="B763">
-        <v>3.758831655603981</v>
+        <v>2.680104396610856</v>
       </c>
     </row>
     <row r="764" spans="1:2">
@@ -6486,7 +6486,7 @@
         <v>762</v>
       </c>
       <c r="B764">
-        <v>5.977464541947609</v>
+        <v>4.15925831561021</v>
       </c>
     </row>
     <row r="765" spans="1:2">
@@ -6494,7 +6494,7 @@
         <v>763</v>
       </c>
       <c r="B765">
-        <v>2.943143932751408</v>
+        <v>11.59135181600732</v>
       </c>
     </row>
     <row r="766" spans="1:2">
@@ -6502,7 +6502,7 @@
         <v>764</v>
       </c>
       <c r="B766">
-        <v>4.100892104944747</v>
+        <v>7.748921244898162</v>
       </c>
     </row>
     <row r="767" spans="1:2">
@@ -6510,7 +6510,7 @@
         <v>765</v>
       </c>
       <c r="B767">
-        <v>2.886539131213646</v>
+        <v>5.475648692410394</v>
       </c>
     </row>
     <row r="768" spans="1:2">
@@ -6518,7 +6518,7 @@
         <v>766</v>
       </c>
       <c r="B768">
-        <v>6.426071892097906</v>
+        <v>11.31512612089247</v>
       </c>
     </row>
     <row r="769" spans="1:2">
@@ -6526,7 +6526,7 @@
         <v>767</v>
       </c>
       <c r="B769">
-        <v>10.84197217835426</v>
+        <v>4.737603480959394</v>
       </c>
     </row>
     <row r="770" spans="1:2">
@@ -6534,7 +6534,7 @@
         <v>768</v>
       </c>
       <c r="B770">
-        <v>7.614350943873629</v>
+        <v>25.28017511612428</v>
       </c>
     </row>
     <row r="771" spans="1:2">
@@ -6542,7 +6542,7 @@
         <v>769</v>
       </c>
       <c r="B771">
-        <v>5.760748598559879</v>
+        <v>3.789637947636899</v>
       </c>
     </row>
     <row r="772" spans="1:2">
@@ -6550,7 +6550,7 @@
         <v>770</v>
       </c>
       <c r="B772">
-        <v>10.56622080860984</v>
+        <v>15.30015168105971</v>
       </c>
     </row>
     <row r="773" spans="1:2">
@@ -6558,7 +6558,7 @@
         <v>771</v>
       </c>
       <c r="B773">
-        <v>8.600155359722635</v>
+        <v>8.136703398409999</v>
       </c>
     </row>
     <row r="774" spans="1:2">
@@ -6566,7 +6566,7 @@
         <v>772</v>
       </c>
       <c r="B774">
-        <v>5.088327425128267</v>
+        <v>4.956862495903757</v>
       </c>
     </row>
     <row r="775" spans="1:2">
@@ -6574,7 +6574,7 @@
         <v>773</v>
       </c>
       <c r="B775">
-        <v>11.90758075918746</v>
+        <v>5.359506260059614</v>
       </c>
     </row>
     <row r="776" spans="1:2">
@@ -6582,7 +6582,7 @@
         <v>774</v>
       </c>
       <c r="B776">
-        <v>4.857692888613339</v>
+        <v>9.256131621564135</v>
       </c>
     </row>
     <row r="777" spans="1:2">
@@ -6590,7 +6590,7 @@
         <v>775</v>
       </c>
       <c r="B777">
-        <v>6.815339159333366</v>
+        <v>7.584756312277209</v>
       </c>
     </row>
     <row r="778" spans="1:2">
@@ -6598,7 +6598,7 @@
         <v>776</v>
       </c>
       <c r="B778">
-        <v>7.736559218892979</v>
+        <v>10.36599217482091</v>
       </c>
     </row>
     <row r="779" spans="1:2">
@@ -6606,7 +6606,7 @@
         <v>777</v>
       </c>
       <c r="B779">
-        <v>11.35755972337131</v>
+        <v>7.754435065286401</v>
       </c>
     </row>
     <row r="780" spans="1:2">
@@ -6614,7 +6614,7 @@
         <v>778</v>
       </c>
       <c r="B780">
-        <v>8.597892379482026</v>
+        <v>3.464786567926826</v>
       </c>
     </row>
     <row r="781" spans="1:2">
@@ -6622,7 +6622,7 @@
         <v>779</v>
       </c>
       <c r="B781">
-        <v>8.97237905740243</v>
+        <v>5.070151084707413</v>
       </c>
     </row>
     <row r="782" spans="1:2">
@@ -6630,7 +6630,7 @@
         <v>780</v>
       </c>
       <c r="B782">
-        <v>6.507931440230279</v>
+        <v>6.928973696946613</v>
       </c>
     </row>
     <row r="783" spans="1:2">
@@ -6638,7 +6638,7 @@
         <v>781</v>
       </c>
       <c r="B783">
-        <v>9.368505521164945</v>
+        <v>6.263643635856969</v>
       </c>
     </row>
     <row r="784" spans="1:2">
@@ -6646,7 +6646,7 @@
         <v>782</v>
       </c>
       <c r="B784">
-        <v>17.78108125419285</v>
+        <v>12.42543506106332</v>
       </c>
     </row>
     <row r="785" spans="1:2">
@@ -6654,7 +6654,7 @@
         <v>783</v>
       </c>
       <c r="B785">
-        <v>4.39811540049935</v>
+        <v>7.351214811636791</v>
       </c>
     </row>
     <row r="786" spans="1:2">
@@ -6662,7 +6662,7 @@
         <v>784</v>
       </c>
       <c r="B786">
-        <v>5.652974851814696</v>
+        <v>6.49292349617059</v>
       </c>
     </row>
     <row r="787" spans="1:2">
@@ -6670,7 +6670,7 @@
         <v>785</v>
       </c>
       <c r="B787">
-        <v>4.27429236439407</v>
+        <v>4.535223248944363</v>
       </c>
     </row>
     <row r="788" spans="1:2">
@@ -6678,7 +6678,7 @@
         <v>786</v>
       </c>
       <c r="B788">
-        <v>3.433776425809691</v>
+        <v>3.451926572363315</v>
       </c>
     </row>
     <row r="789" spans="1:2">
@@ -6686,7 +6686,7 @@
         <v>787</v>
       </c>
       <c r="B789">
-        <v>5.345617367205741</v>
+        <v>4.548566457543954</v>
       </c>
     </row>
     <row r="790" spans="1:2">
@@ -6694,7 +6694,7 @@
         <v>788</v>
       </c>
       <c r="B790">
-        <v>9.490421059685787</v>
+        <v>4.256150157041567</v>
       </c>
     </row>
     <row r="791" spans="1:2">
@@ -6702,7 +6702,7 @@
         <v>789</v>
       </c>
       <c r="B791">
-        <v>3.707715915756685</v>
+        <v>5.031082115697704</v>
       </c>
     </row>
     <row r="792" spans="1:2">
@@ -6710,7 +6710,7 @@
         <v>790</v>
       </c>
       <c r="B792">
-        <v>7.4959987656186</v>
+        <v>12.14245930923253</v>
       </c>
     </row>
     <row r="793" spans="1:2">
@@ -6718,7 +6718,7 @@
         <v>791</v>
       </c>
       <c r="B793">
-        <v>24.31693724987095</v>
+        <v>3.912782397265648</v>
       </c>
     </row>
     <row r="794" spans="1:2">
@@ -6726,7 +6726,7 @@
         <v>792</v>
       </c>
       <c r="B794">
-        <v>8.466916168461838</v>
+        <v>6.718088339550237</v>
       </c>
     </row>
     <row r="795" spans="1:2">
@@ -6734,7 +6734,7 @@
         <v>793</v>
       </c>
       <c r="B795">
-        <v>9.366456029793035</v>
+        <v>18.33716340792802</v>
       </c>
     </row>
     <row r="796" spans="1:2">
@@ -6742,7 +6742,7 @@
         <v>794</v>
       </c>
       <c r="B796">
-        <v>7.428955635569</v>
+        <v>6.10980142633557</v>
       </c>
     </row>
     <row r="797" spans="1:2">
@@ -6750,7 +6750,7 @@
         <v>795</v>
       </c>
       <c r="B797">
-        <v>6.226484738603856</v>
+        <v>5.246718006768037</v>
       </c>
     </row>
     <row r="798" spans="1:2">
@@ -6758,7 +6758,7 @@
         <v>796</v>
       </c>
       <c r="B798">
-        <v>2.810074871115404</v>
+        <v>9.697522847257995</v>
       </c>
     </row>
     <row r="799" spans="1:2">
@@ -6766,7 +6766,7 @@
         <v>797</v>
       </c>
       <c r="B799">
-        <v>23.30948338243129</v>
+        <v>3.722561223650982</v>
       </c>
     </row>
     <row r="800" spans="1:2">
@@ -6774,7 +6774,7 @@
         <v>798</v>
       </c>
       <c r="B800">
-        <v>2.254523723955358</v>
+        <v>14.56735666127817</v>
       </c>
     </row>
     <row r="801" spans="1:2">
@@ -6782,7 +6782,7 @@
         <v>799</v>
       </c>
       <c r="B801">
-        <v>11.18395377391396</v>
+        <v>8.677910127036052</v>
       </c>
     </row>
     <row r="802" spans="1:2">
@@ -6790,7 +6790,7 @@
         <v>800</v>
       </c>
       <c r="B802">
-        <v>3.723773418019938</v>
+        <v>19.81645638729484</v>
       </c>
     </row>
     <row r="803" spans="1:2">
@@ -6798,7 +6798,7 @@
         <v>801</v>
       </c>
       <c r="B803">
-        <v>6.450354041014434</v>
+        <v>9.503088041287327</v>
       </c>
     </row>
     <row r="804" spans="1:2">
@@ -6806,7 +6806,7 @@
         <v>802</v>
       </c>
       <c r="B804">
-        <v>1.850157916134087</v>
+        <v>11.65598931425</v>
       </c>
     </row>
     <row r="805" spans="1:2">
@@ -6814,7 +6814,7 @@
         <v>803</v>
       </c>
       <c r="B805">
-        <v>5.525904619646488</v>
+        <v>7.090356223928993</v>
       </c>
     </row>
     <row r="806" spans="1:2">
@@ -6822,7 +6822,7 @@
         <v>804</v>
       </c>
       <c r="B806">
-        <v>3.61628495122046</v>
+        <v>7.945055523038169</v>
       </c>
     </row>
     <row r="807" spans="1:2">
@@ -6830,7 +6830,7 @@
         <v>805</v>
       </c>
       <c r="B807">
-        <v>5.312142391712417</v>
+        <v>2.404424970141325</v>
       </c>
     </row>
     <row r="808" spans="1:2">
@@ -6838,7 +6838,7 @@
         <v>806</v>
       </c>
       <c r="B808">
-        <v>4.117893600877581</v>
+        <v>33.47348122154646</v>
       </c>
     </row>
     <row r="809" spans="1:2">
@@ -6846,7 +6846,7 @@
         <v>807</v>
       </c>
       <c r="B809">
-        <v>4.56629036906356</v>
+        <v>12.90992466803242</v>
       </c>
     </row>
     <row r="810" spans="1:2">
@@ -6854,7 +6854,7 @@
         <v>808</v>
       </c>
       <c r="B810">
-        <v>5.61093798066883</v>
+        <v>11.29078265962383</v>
       </c>
     </row>
     <row r="811" spans="1:2">
@@ -6862,7 +6862,7 @@
         <v>809</v>
       </c>
       <c r="B811">
-        <v>6.195551947050035</v>
+        <v>7.217717938863546</v>
       </c>
     </row>
     <row r="812" spans="1:2">
@@ -6870,7 +6870,7 @@
         <v>810</v>
       </c>
       <c r="B812">
-        <v>9.823767623708306</v>
+        <v>5.916805285535113</v>
       </c>
     </row>
     <row r="813" spans="1:2">
@@ -6878,7 +6878,7 @@
         <v>811</v>
       </c>
       <c r="B813">
-        <v>5.574693140928633</v>
+        <v>9.53391424501651</v>
       </c>
     </row>
     <row r="814" spans="1:2">
@@ -6886,7 +6886,7 @@
         <v>812</v>
       </c>
       <c r="B814">
-        <v>2.892596610538661</v>
+        <v>8.976992178498104</v>
       </c>
     </row>
     <row r="815" spans="1:2">
@@ -6894,7 +6894,7 @@
         <v>813</v>
       </c>
       <c r="B815">
-        <v>6.149040074683786</v>
+        <v>15.95279065871772</v>
       </c>
     </row>
     <row r="816" spans="1:2">
@@ -6902,7 +6902,7 @@
         <v>814</v>
       </c>
       <c r="B816">
-        <v>2.998186667699326</v>
+        <v>9.445668596359537</v>
       </c>
     </row>
     <row r="817" spans="1:2">
@@ -6910,7 +6910,7 @@
         <v>815</v>
       </c>
       <c r="B817">
-        <v>7.982541150772543</v>
+        <v>11.77256736497026</v>
       </c>
     </row>
     <row r="818" spans="1:2">
@@ -6918,7 +6918,7 @@
         <v>816</v>
       </c>
       <c r="B818">
-        <v>5.036935121256966</v>
+        <v>9.433810472964559</v>
       </c>
     </row>
     <row r="819" spans="1:2">
@@ -6926,7 +6926,7 @@
         <v>817</v>
       </c>
       <c r="B819">
-        <v>8.607004758510195</v>
+        <v>10.51340383910098</v>
       </c>
     </row>
     <row r="820" spans="1:2">
@@ -6934,7 +6934,7 @@
         <v>818</v>
       </c>
       <c r="B820">
-        <v>13.86541617151892</v>
+        <v>4.510481781865046</v>
       </c>
     </row>
     <row r="821" spans="1:2">
@@ -6942,7 +6942,7 @@
         <v>819</v>
       </c>
       <c r="B821">
-        <v>2.927295096812716</v>
+        <v>9.507834373980758</v>
       </c>
     </row>
     <row r="822" spans="1:2">
@@ -6950,7 +6950,7 @@
         <v>820</v>
       </c>
       <c r="B822">
-        <v>9.9041816678146</v>
+        <v>6.690325931759411</v>
       </c>
     </row>
     <row r="823" spans="1:2">
@@ -6958,7 +6958,7 @@
         <v>821</v>
       </c>
       <c r="B823">
-        <v>4.613490182765609</v>
+        <v>7.029247389528718</v>
       </c>
     </row>
     <row r="824" spans="1:2">
@@ -6966,7 +6966,7 @@
         <v>822</v>
       </c>
       <c r="B824">
-        <v>18.84922554455123</v>
+        <v>14.50528065649273</v>
       </c>
     </row>
     <row r="825" spans="1:2">
@@ -6974,7 +6974,7 @@
         <v>823</v>
       </c>
       <c r="B825">
-        <v>8.497384270014482</v>
+        <v>11.23173727405724</v>
       </c>
     </row>
     <row r="826" spans="1:2">
@@ -6982,7 +6982,7 @@
         <v>824</v>
       </c>
       <c r="B826">
-        <v>4.305280765072134</v>
+        <v>6.096717552982652</v>
       </c>
     </row>
     <row r="827" spans="1:2">
@@ -6990,7 +6990,7 @@
         <v>825</v>
       </c>
       <c r="B827">
-        <v>8.255328056990665</v>
+        <v>7.10096540396762</v>
       </c>
     </row>
     <row r="828" spans="1:2">
@@ -6998,7 +6998,7 @@
         <v>826</v>
       </c>
       <c r="B828">
-        <v>4.469201170894572</v>
+        <v>3.356325797738788</v>
       </c>
     </row>
     <row r="829" spans="1:2">
@@ -7006,7 +7006,7 @@
         <v>827</v>
       </c>
       <c r="B829">
-        <v>3.898415723015021</v>
+        <v>8.582543082332361</v>
       </c>
     </row>
     <row r="830" spans="1:2">
@@ -7014,7 +7014,7 @@
         <v>828</v>
       </c>
       <c r="B830">
-        <v>7.048946419625424</v>
+        <v>4.803631100227995</v>
       </c>
     </row>
     <row r="831" spans="1:2">
@@ -7022,7 +7022,7 @@
         <v>829</v>
       </c>
       <c r="B831">
-        <v>6.850340591218941</v>
+        <v>7.702282601013263</v>
       </c>
     </row>
     <row r="832" spans="1:2">
@@ -7030,7 +7030,7 @@
         <v>830</v>
       </c>
       <c r="B832">
-        <v>6.264439073642273</v>
+        <v>8.399958994976313</v>
       </c>
     </row>
     <row r="833" spans="1:2">
@@ -7038,7 +7038,7 @@
         <v>831</v>
       </c>
       <c r="B833">
-        <v>4.308861600117569</v>
+        <v>6.420281765959509</v>
       </c>
     </row>
     <row r="834" spans="1:2">
@@ -7046,7 +7046,7 @@
         <v>832</v>
       </c>
       <c r="B834">
-        <v>5.444283378546693</v>
+        <v>7.68736803049398</v>
       </c>
     </row>
     <row r="835" spans="1:2">
@@ -7054,7 +7054,7 @@
         <v>833</v>
       </c>
       <c r="B835">
-        <v>2.955186922568044</v>
+        <v>5.191320902663788</v>
       </c>
     </row>
     <row r="836" spans="1:2">
@@ -7062,7 +7062,7 @@
         <v>834</v>
       </c>
       <c r="B836">
-        <v>8.38413813758245</v>
+        <v>6.192040900739767</v>
       </c>
     </row>
     <row r="837" spans="1:2">
@@ -7070,7 +7070,7 @@
         <v>835</v>
       </c>
       <c r="B837">
-        <v>12.12946023977412</v>
+        <v>5.907178476562986</v>
       </c>
     </row>
     <row r="838" spans="1:2">
@@ -7078,7 +7078,7 @@
         <v>836</v>
       </c>
       <c r="B838">
-        <v>7.07988915279163</v>
+        <v>11.17752812861987</v>
       </c>
     </row>
     <row r="839" spans="1:2">
@@ -7086,7 +7086,7 @@
         <v>837</v>
       </c>
       <c r="B839">
-        <v>10.17579872885098</v>
+        <v>22.85933709655857</v>
       </c>
     </row>
     <row r="840" spans="1:2">
@@ -7094,7 +7094,7 @@
         <v>838</v>
       </c>
       <c r="B840">
-        <v>9.533953020542752</v>
+        <v>9.380712142915716</v>
       </c>
     </row>
     <row r="841" spans="1:2">
@@ -7102,7 +7102,7 @@
         <v>839</v>
       </c>
       <c r="B841">
-        <v>6.21717946229619</v>
+        <v>3.431957473614216</v>
       </c>
     </row>
     <row r="842" spans="1:2">
@@ -7110,7 +7110,7 @@
         <v>840</v>
       </c>
       <c r="B842">
-        <v>2.637498443265535</v>
+        <v>14.29599561350924</v>
       </c>
     </row>
     <row r="843" spans="1:2">
@@ -7118,7 +7118,7 @@
         <v>841</v>
       </c>
       <c r="B843">
-        <v>15.21356749828272</v>
+        <v>4.11216738977298</v>
       </c>
     </row>
     <row r="844" spans="1:2">
@@ -7126,7 +7126,7 @@
         <v>842</v>
       </c>
       <c r="B844">
-        <v>7.622009706137049</v>
+        <v>20.05717206635506</v>
       </c>
     </row>
     <row r="845" spans="1:2">
@@ -7134,7 +7134,7 @@
         <v>843</v>
       </c>
       <c r="B845">
-        <v>5.44955144392076</v>
+        <v>7.000387560675226</v>
       </c>
     </row>
     <row r="846" spans="1:2">
@@ -7142,7 +7142,7 @@
         <v>844</v>
       </c>
       <c r="B846">
-        <v>4.112656845289026</v>
+        <v>3.107765679216554</v>
       </c>
     </row>
     <row r="847" spans="1:2">
@@ -7150,7 +7150,7 @@
         <v>845</v>
       </c>
       <c r="B847">
-        <v>17.35274667116127</v>
+        <v>22.31277910534177</v>
       </c>
     </row>
     <row r="848" spans="1:2">
@@ -7158,7 +7158,7 @@
         <v>846</v>
       </c>
       <c r="B848">
-        <v>17.10519331453299</v>
+        <v>10.03854484060992</v>
       </c>
     </row>
     <row r="849" spans="1:2">
@@ -7166,7 +7166,7 @@
         <v>847</v>
       </c>
       <c r="B849">
-        <v>13.8334668012721</v>
+        <v>9.465629301288637</v>
       </c>
     </row>
     <row r="850" spans="1:2">
@@ -7174,7 +7174,7 @@
         <v>848</v>
       </c>
       <c r="B850">
-        <v>10.6047184236158</v>
+        <v>6.983787561351344</v>
       </c>
     </row>
     <row r="851" spans="1:2">
@@ -7182,7 +7182,7 @@
         <v>849</v>
       </c>
       <c r="B851">
-        <v>9.408389187705813</v>
+        <v>5.30743611031746</v>
       </c>
     </row>
     <row r="852" spans="1:2">
@@ -7190,7 +7190,7 @@
         <v>850</v>
       </c>
       <c r="B852">
-        <v>3.514135666884135</v>
+        <v>6.5013656860356</v>
       </c>
     </row>
     <row r="853" spans="1:2">
@@ -7198,7 +7198,7 @@
         <v>851</v>
       </c>
       <c r="B853">
-        <v>6.367525193706263</v>
+        <v>8.081038238378287</v>
       </c>
     </row>
     <row r="854" spans="1:2">
@@ -7206,7 +7206,7 @@
         <v>852</v>
       </c>
       <c r="B854">
-        <v>5.14163588786593</v>
+        <v>1.542473475110412</v>
       </c>
     </row>
     <row r="855" spans="1:2">
@@ -7214,7 +7214,7 @@
         <v>853</v>
       </c>
       <c r="B855">
-        <v>12.64274437883916</v>
+        <v>4.250033167549988</v>
       </c>
     </row>
     <row r="856" spans="1:2">
@@ -7222,7 +7222,7 @@
         <v>854</v>
       </c>
       <c r="B856">
-        <v>7.778025193057371</v>
+        <v>5.993720546190779</v>
       </c>
     </row>
     <row r="857" spans="1:2">
@@ -7230,7 +7230,7 @@
         <v>855</v>
       </c>
       <c r="B857">
-        <v>13.77801373142024</v>
+        <v>11.53731359334525</v>
       </c>
     </row>
     <row r="858" spans="1:2">
@@ -7238,7 +7238,7 @@
         <v>856</v>
       </c>
       <c r="B858">
-        <v>10.98263112501574</v>
+        <v>10.60723444681615</v>
       </c>
     </row>
     <row r="859" spans="1:2">
@@ -7246,7 +7246,7 @@
         <v>857</v>
       </c>
       <c r="B859">
-        <v>14.33309793631839</v>
+        <v>19.87635064630583</v>
       </c>
     </row>
     <row r="860" spans="1:2">
@@ -7254,7 +7254,7 @@
         <v>858</v>
       </c>
       <c r="B860">
-        <v>5.606898815022775</v>
+        <v>10.75261230017447</v>
       </c>
     </row>
     <row r="861" spans="1:2">
@@ -7262,7 +7262,7 @@
         <v>859</v>
       </c>
       <c r="B861">
-        <v>3.912682171401979</v>
+        <v>18.12984572070423</v>
       </c>
     </row>
     <row r="862" spans="1:2">
@@ -7270,7 +7270,7 @@
         <v>860</v>
       </c>
       <c r="B862">
-        <v>4.277242279757043</v>
+        <v>3.761910036583561</v>
       </c>
     </row>
     <row r="863" spans="1:2">
@@ -7278,7 +7278,7 @@
         <v>861</v>
       </c>
       <c r="B863">
-        <v>6.37205942351597</v>
+        <v>9.771146564834813</v>
       </c>
     </row>
     <row r="864" spans="1:2">
@@ -7286,7 +7286,7 @@
         <v>862</v>
       </c>
       <c r="B864">
-        <v>8.523233294375816</v>
+        <v>5.691057969532014</v>
       </c>
     </row>
     <row r="865" spans="1:2">
@@ -7294,7 +7294,7 @@
         <v>863</v>
       </c>
       <c r="B865">
-        <v>9.507296626209481</v>
+        <v>14.72849863346766</v>
       </c>
     </row>
     <row r="866" spans="1:2">
@@ -7302,7 +7302,7 @@
         <v>864</v>
       </c>
       <c r="B866">
-        <v>12.7161100692957</v>
+        <v>6.377677920106737</v>
       </c>
     </row>
     <row r="867" spans="1:2">
@@ -7310,7 +7310,7 @@
         <v>865</v>
       </c>
       <c r="B867">
-        <v>12.00929941204678</v>
+        <v>8.447311741664761</v>
       </c>
     </row>
     <row r="868" spans="1:2">
@@ -7318,7 +7318,7 @@
         <v>866</v>
       </c>
       <c r="B868">
-        <v>4.861321512626584</v>
+        <v>4.973275541524566</v>
       </c>
     </row>
     <row r="869" spans="1:2">
@@ -7326,7 +7326,7 @@
         <v>867</v>
       </c>
       <c r="B869">
-        <v>19.93359804414183</v>
+        <v>8.412292824104433</v>
       </c>
     </row>
     <row r="870" spans="1:2">
@@ -7334,7 +7334,7 @@
         <v>868</v>
       </c>
       <c r="B870">
-        <v>5.115006369287648</v>
+        <v>2.695703317712053</v>
       </c>
     </row>
     <row r="871" spans="1:2">
@@ -7342,7 +7342,7 @@
         <v>869</v>
       </c>
       <c r="B871">
-        <v>6.39775009599472</v>
+        <v>8.488172950682257</v>
       </c>
     </row>
     <row r="872" spans="1:2">
@@ -7350,7 +7350,7 @@
         <v>870</v>
       </c>
       <c r="B872">
-        <v>14.18625861101756</v>
+        <v>7.661241003255459</v>
       </c>
     </row>
     <row r="873" spans="1:2">
@@ -7358,7 +7358,7 @@
         <v>871</v>
       </c>
       <c r="B873">
-        <v>7.76259651142563</v>
+        <v>23.53478069913269</v>
       </c>
     </row>
     <row r="874" spans="1:2">
@@ -7366,7 +7366,7 @@
         <v>872</v>
       </c>
       <c r="B874">
-        <v>5.81114458896834</v>
+        <v>9.848014980078585</v>
       </c>
     </row>
     <row r="875" spans="1:2">
@@ -7374,7 +7374,7 @@
         <v>873</v>
       </c>
       <c r="B875">
-        <v>4.941627942731847</v>
+        <v>8.106883230029037</v>
       </c>
     </row>
     <row r="876" spans="1:2">
@@ -7382,7 +7382,7 @@
         <v>874</v>
       </c>
       <c r="B876">
-        <v>3.133502385915317</v>
+        <v>3.558510942809333</v>
       </c>
     </row>
     <row r="877" spans="1:2">
@@ -7390,7 +7390,7 @@
         <v>875</v>
       </c>
       <c r="B877">
-        <v>8.15355288528769</v>
+        <v>5.747070919139644</v>
       </c>
     </row>
     <row r="878" spans="1:2">
@@ -7398,7 +7398,7 @@
         <v>876</v>
       </c>
       <c r="B878">
-        <v>8.011697941389587</v>
+        <v>10.16066503892886</v>
       </c>
     </row>
     <row r="879" spans="1:2">
@@ -7406,7 +7406,7 @@
         <v>877</v>
       </c>
       <c r="B879">
-        <v>8.55150406329197</v>
+        <v>6.69536401826962</v>
       </c>
     </row>
     <row r="880" spans="1:2">
@@ -7414,7 +7414,7 @@
         <v>878</v>
       </c>
       <c r="B880">
-        <v>8.796291393240969</v>
+        <v>5.590564411868792</v>
       </c>
     </row>
     <row r="881" spans="1:2">
@@ -7422,7 +7422,7 @@
         <v>879</v>
       </c>
       <c r="B881">
-        <v>4.305212023196602</v>
+        <v>4.029773304745528</v>
       </c>
     </row>
     <row r="882" spans="1:2">
@@ -7430,7 +7430,7 @@
         <v>880</v>
       </c>
       <c r="B882">
-        <v>4.72830688017719</v>
+        <v>6.37181019564229</v>
       </c>
     </row>
     <row r="883" spans="1:2">
@@ -7438,7 +7438,7 @@
         <v>881</v>
       </c>
       <c r="B883">
-        <v>4.126978646985293</v>
+        <v>12.31800968073659</v>
       </c>
     </row>
     <row r="884" spans="1:2">
@@ -7446,7 +7446,7 @@
         <v>882</v>
       </c>
       <c r="B884">
-        <v>16.27966165351541</v>
+        <v>7.413332604269827</v>
       </c>
     </row>
     <row r="885" spans="1:2">
@@ -7454,7 +7454,7 @@
         <v>883</v>
       </c>
       <c r="B885">
-        <v>6.897432081895522</v>
+        <v>12.88759829868087</v>
       </c>
     </row>
     <row r="886" spans="1:2">
@@ -7462,7 +7462,7 @@
         <v>884</v>
       </c>
       <c r="B886">
-        <v>8.940398214505127</v>
+        <v>11.31641569416028</v>
       </c>
     </row>
     <row r="887" spans="1:2">
@@ -7470,7 +7470,7 @@
         <v>885</v>
       </c>
       <c r="B887">
-        <v>7.990826056506177</v>
+        <v>21.10118876071009</v>
       </c>
     </row>
     <row r="888" spans="1:2">
@@ -7478,7 +7478,7 @@
         <v>886</v>
       </c>
       <c r="B888">
-        <v>4.149108478819355</v>
+        <v>10.8734388760164</v>
       </c>
     </row>
     <row r="889" spans="1:2">
@@ -7486,7 +7486,7 @@
         <v>887</v>
       </c>
       <c r="B889">
-        <v>5.593319715221836</v>
+        <v>12.24684556577148</v>
       </c>
     </row>
     <row r="890" spans="1:2">
@@ -7494,7 +7494,7 @@
         <v>888</v>
       </c>
       <c r="B890">
-        <v>8.31608158222147</v>
+        <v>11.34363544146241</v>
       </c>
     </row>
     <row r="891" spans="1:2">
@@ -7502,7 +7502,7 @@
         <v>889</v>
       </c>
       <c r="B891">
-        <v>4.964905082545149</v>
+        <v>11.31968370859498</v>
       </c>
     </row>
     <row r="892" spans="1:2">
@@ -7510,7 +7510,7 @@
         <v>890</v>
       </c>
       <c r="B892">
-        <v>3.85387445179606</v>
+        <v>3.695338694634587</v>
       </c>
     </row>
     <row r="893" spans="1:2">
@@ -7518,7 +7518,7 @@
         <v>891</v>
       </c>
       <c r="B893">
-        <v>11.01326907026727</v>
+        <v>4.631699450264426</v>
       </c>
     </row>
     <row r="894" spans="1:2">
@@ -7526,7 +7526,7 @@
         <v>892</v>
       </c>
       <c r="B894">
-        <v>8.899660745303898</v>
+        <v>8.524820530106357</v>
       </c>
     </row>
     <row r="895" spans="1:2">
@@ -7534,7 +7534,7 @@
         <v>893</v>
       </c>
       <c r="B895">
-        <v>9.409166795963085</v>
+        <v>6.254460292090417</v>
       </c>
     </row>
     <row r="896" spans="1:2">
@@ -7542,7 +7542,7 @@
         <v>894</v>
       </c>
       <c r="B896">
-        <v>8.644397991637542</v>
+        <v>10.57330430347909</v>
       </c>
     </row>
     <row r="897" spans="1:2">
@@ -7550,7 +7550,7 @@
         <v>895</v>
       </c>
       <c r="B897">
-        <v>4.62743005000041</v>
+        <v>15.52730281117737</v>
       </c>
     </row>
     <row r="898" spans="1:2">
@@ -7558,7 +7558,7 @@
         <v>896</v>
       </c>
       <c r="B898">
-        <v>6.681802411352701</v>
+        <v>9.863085238185677</v>
       </c>
     </row>
     <row r="899" spans="1:2">
@@ -7566,7 +7566,7 @@
         <v>897</v>
       </c>
       <c r="B899">
-        <v>13.56634905444699</v>
+        <v>13.26651136757541</v>
       </c>
     </row>
     <row r="900" spans="1:2">
@@ -7574,7 +7574,7 @@
         <v>898</v>
       </c>
       <c r="B900">
-        <v>11.52038043981055</v>
+        <v>7.199278894052237</v>
       </c>
     </row>
     <row r="901" spans="1:2">
@@ -7582,7 +7582,7 @@
         <v>899</v>
       </c>
       <c r="B901">
-        <v>26.68401507857651</v>
+        <v>15.90900898060235</v>
       </c>
     </row>
     <row r="902" spans="1:2">
@@ -7590,7 +7590,7 @@
         <v>900</v>
       </c>
       <c r="B902">
-        <v>11.84982861634971</v>
+        <v>8.362129996954708</v>
       </c>
     </row>
     <row r="903" spans="1:2">
@@ -7598,7 +7598,7 @@
         <v>901</v>
       </c>
       <c r="B903">
-        <v>7.289540456196717</v>
+        <v>7.27601715927729</v>
       </c>
     </row>
     <row r="904" spans="1:2">
@@ -7606,7 +7606,7 @@
         <v>902</v>
       </c>
       <c r="B904">
-        <v>8.721993711979158</v>
+        <v>11.64458266990802</v>
       </c>
     </row>
     <row r="905" spans="1:2">
@@ -7614,7 +7614,7 @@
         <v>903</v>
       </c>
       <c r="B905">
-        <v>8.258828486506379</v>
+        <v>6.954385838313165</v>
       </c>
     </row>
     <row r="906" spans="1:2">
@@ -7622,7 +7622,7 @@
         <v>904</v>
       </c>
       <c r="B906">
-        <v>7.134763984829291</v>
+        <v>16.53423307590048</v>
       </c>
     </row>
     <row r="907" spans="1:2">
@@ -7630,7 +7630,7 @@
         <v>905</v>
       </c>
       <c r="B907">
-        <v>3.586157462556196</v>
+        <v>4.694017176169876</v>
       </c>
     </row>
     <row r="908" spans="1:2">
@@ -7638,7 +7638,7 @@
         <v>906</v>
       </c>
       <c r="B908">
-        <v>7.535377437648003</v>
+        <v>10.28605685464404</v>
       </c>
     </row>
     <row r="909" spans="1:2">
@@ -7646,7 +7646,7 @@
         <v>907</v>
       </c>
       <c r="B909">
-        <v>8.792418891879665</v>
+        <v>8.47189917266234</v>
       </c>
     </row>
     <row r="910" spans="1:2">
@@ -7654,7 +7654,7 @@
         <v>908</v>
       </c>
       <c r="B910">
-        <v>6.210951628426006</v>
+        <v>14.39701454365986</v>
       </c>
     </row>
     <row r="911" spans="1:2">
@@ -7662,7 +7662,7 @@
         <v>909</v>
       </c>
       <c r="B911">
-        <v>2.448634935053536</v>
+        <v>5.760931144438543</v>
       </c>
     </row>
     <row r="912" spans="1:2">
@@ -7670,7 +7670,7 @@
         <v>910</v>
       </c>
       <c r="B912">
-        <v>5.465062300267032</v>
+        <v>10.71654126527713</v>
       </c>
     </row>
     <row r="913" spans="1:2">
@@ -7678,7 +7678,7 @@
         <v>911</v>
       </c>
       <c r="B913">
-        <v>7.623798452572863</v>
+        <v>13.75135148671746</v>
       </c>
     </row>
     <row r="914" spans="1:2">
@@ -7686,7 +7686,7 @@
         <v>912</v>
       </c>
       <c r="B914">
-        <v>8.808267667361825</v>
+        <v>8.574161672992387</v>
       </c>
     </row>
     <row r="915" spans="1:2">
@@ -7694,7 +7694,7 @@
         <v>913</v>
       </c>
       <c r="B915">
-        <v>16.87776752069541</v>
+        <v>4.254962915555296</v>
       </c>
     </row>
     <row r="916" spans="1:2">
@@ -7702,7 +7702,7 @@
         <v>914</v>
       </c>
       <c r="B916">
-        <v>8.502036721693822</v>
+        <v>22.56648204796226</v>
       </c>
     </row>
     <row r="917" spans="1:2">
@@ -7710,7 +7710,7 @@
         <v>915</v>
       </c>
       <c r="B917">
-        <v>9.103894269314628</v>
+        <v>19.44333497155876</v>
       </c>
     </row>
     <row r="918" spans="1:2">
@@ -7718,7 +7718,7 @@
         <v>916</v>
       </c>
       <c r="B918">
-        <v>10.03812470315651</v>
+        <v>8.317527530066226</v>
       </c>
     </row>
     <row r="919" spans="1:2">
@@ -7726,7 +7726,7 @@
         <v>917</v>
       </c>
       <c r="B919">
-        <v>6.681515741387755</v>
+        <v>11.6576555007805</v>
       </c>
     </row>
     <row r="920" spans="1:2">
@@ -7734,7 +7734,7 @@
         <v>918</v>
       </c>
       <c r="B920">
-        <v>8.499973235559544</v>
+        <v>8.594641856641008</v>
       </c>
     </row>
     <row r="921" spans="1:2">
@@ -7742,7 +7742,7 @@
         <v>919</v>
       </c>
       <c r="B921">
-        <v>14.08130570885326</v>
+        <v>3.091423910222699</v>
       </c>
     </row>
     <row r="922" spans="1:2">
@@ -7750,7 +7750,7 @@
         <v>920</v>
       </c>
       <c r="B922">
-        <v>5.981426647867326</v>
+        <v>2.791497264161859</v>
       </c>
     </row>
     <row r="923" spans="1:2">
@@ -7758,7 +7758,7 @@
         <v>921</v>
       </c>
       <c r="B923">
-        <v>9.199811203092416</v>
+        <v>4.924912374578739</v>
       </c>
     </row>
     <row r="924" spans="1:2">
@@ -7766,7 +7766,7 @@
         <v>922</v>
       </c>
       <c r="B924">
-        <v>4.121077489934997</v>
+        <v>4.774050295004289</v>
       </c>
     </row>
     <row r="925" spans="1:2">
@@ -7774,7 +7774,7 @@
         <v>923</v>
       </c>
       <c r="B925">
-        <v>8.544751679831155</v>
+        <v>6.817351214435122</v>
       </c>
     </row>
     <row r="926" spans="1:2">
@@ -7782,7 +7782,7 @@
         <v>924</v>
       </c>
       <c r="B926">
-        <v>19.84006707328343</v>
+        <v>8.335016973549576</v>
       </c>
     </row>
     <row r="927" spans="1:2">
@@ -7790,7 +7790,7 @@
         <v>925</v>
       </c>
       <c r="B927">
-        <v>6.257348944166795</v>
+        <v>14.36039656330482</v>
       </c>
     </row>
     <row r="928" spans="1:2">
@@ -7798,7 +7798,7 @@
         <v>926</v>
       </c>
       <c r="B928">
-        <v>8.8320217436566</v>
+        <v>10.27170926805607</v>
       </c>
     </row>
     <row r="929" spans="1:2">
@@ -7806,7 +7806,7 @@
         <v>927</v>
       </c>
       <c r="B929">
-        <v>9.160629112982935</v>
+        <v>3.918956045840115</v>
       </c>
     </row>
     <row r="930" spans="1:2">
@@ -7814,7 +7814,7 @@
         <v>928</v>
       </c>
       <c r="B930">
-        <v>6.615500384889331</v>
+        <v>5.123063331546533</v>
       </c>
     </row>
     <row r="931" spans="1:2">
@@ -7822,7 +7822,7 @@
         <v>929</v>
       </c>
       <c r="B931">
-        <v>2.543082958317466</v>
+        <v>16.07308068240157</v>
       </c>
     </row>
     <row r="932" spans="1:2">
@@ -7830,7 +7830,7 @@
         <v>930</v>
       </c>
       <c r="B932">
-        <v>11.86234015866869</v>
+        <v>7.072078574306797</v>
       </c>
     </row>
     <row r="933" spans="1:2">
@@ -7838,7 +7838,7 @@
         <v>931</v>
       </c>
       <c r="B933">
-        <v>3.219890053731828</v>
+        <v>5.552763942327157</v>
       </c>
     </row>
     <row r="934" spans="1:2">
@@ -7846,7 +7846,7 @@
         <v>932</v>
       </c>
       <c r="B934">
-        <v>4.723106194672555</v>
+        <v>7.042582204008839</v>
       </c>
     </row>
     <row r="935" spans="1:2">
@@ -7854,7 +7854,7 @@
         <v>933</v>
       </c>
       <c r="B935">
-        <v>5.990847726566806</v>
+        <v>6.945763092561728</v>
       </c>
     </row>
     <row r="936" spans="1:2">
@@ -7862,7 +7862,7 @@
         <v>934</v>
       </c>
       <c r="B936">
-        <v>6.323051719439822</v>
+        <v>8.928600854405158</v>
       </c>
     </row>
     <row r="937" spans="1:2">
@@ -7870,7 +7870,7 @@
         <v>935</v>
       </c>
       <c r="B937">
-        <v>13.48143887461983</v>
+        <v>8.176775917836283</v>
       </c>
     </row>
     <row r="938" spans="1:2">
@@ -7878,7 +7878,7 @@
         <v>936</v>
       </c>
       <c r="B938">
-        <v>5.337893757697948</v>
+        <v>4.490802337317922</v>
       </c>
     </row>
     <row r="939" spans="1:2">
@@ -7886,7 +7886,7 @@
         <v>937</v>
       </c>
       <c r="B939">
-        <v>2.70837805702915</v>
+        <v>5.722177171142344</v>
       </c>
     </row>
     <row r="940" spans="1:2">
@@ -7894,7 +7894,7 @@
         <v>938</v>
       </c>
       <c r="B940">
-        <v>6.110622695074869</v>
+        <v>9.203595764685994</v>
       </c>
     </row>
     <row r="941" spans="1:2">
@@ -7902,7 +7902,7 @@
         <v>939</v>
       </c>
       <c r="B941">
-        <v>8.392161140761043</v>
+        <v>14.46554225009106</v>
       </c>
     </row>
     <row r="942" spans="1:2">
@@ -7910,7 +7910,7 @@
         <v>940</v>
       </c>
       <c r="B942">
-        <v>4.429401447120014</v>
+        <v>6.66322049930999</v>
       </c>
     </row>
     <row r="943" spans="1:2">
@@ -7918,7 +7918,7 @@
         <v>941</v>
       </c>
       <c r="B943">
-        <v>9.280380409474979</v>
+        <v>12.71901328080611</v>
       </c>
     </row>
     <row r="944" spans="1:2">
@@ -7926,7 +7926,7 @@
         <v>942</v>
       </c>
       <c r="B944">
-        <v>12.74247820373613</v>
+        <v>10.725398400548</v>
       </c>
     </row>
     <row r="945" spans="1:2">
@@ -7934,7 +7934,7 @@
         <v>943</v>
       </c>
       <c r="B945">
-        <v>3.516755963408629</v>
+        <v>3.316940849615852</v>
       </c>
     </row>
     <row r="946" spans="1:2">
@@ -7942,7 +7942,7 @@
         <v>944</v>
       </c>
       <c r="B946">
-        <v>10.40565667146881</v>
+        <v>3.715625811354377</v>
       </c>
     </row>
     <row r="947" spans="1:2">
@@ -7950,7 +7950,7 @@
         <v>945</v>
       </c>
       <c r="B947">
-        <v>8.775867626697005</v>
+        <v>10.27101808350652</v>
       </c>
     </row>
     <row r="948" spans="1:2">
@@ -7958,7 +7958,7 @@
         <v>946</v>
       </c>
       <c r="B948">
-        <v>9.659858131837911</v>
+        <v>4.739617402106404</v>
       </c>
     </row>
     <row r="949" spans="1:2">
@@ -7966,7 +7966,7 @@
         <v>947</v>
       </c>
       <c r="B949">
-        <v>7.436233892207438</v>
+        <v>4.512555695983036</v>
       </c>
     </row>
     <row r="950" spans="1:2">
@@ -7974,7 +7974,7 @@
         <v>948</v>
       </c>
       <c r="B950">
-        <v>4.553961058788437</v>
+        <v>5.795754142593101</v>
       </c>
     </row>
     <row r="951" spans="1:2">
@@ -7982,7 +7982,7 @@
         <v>949</v>
       </c>
       <c r="B951">
-        <v>16.90978967923227</v>
+        <v>19.44927823792447</v>
       </c>
     </row>
     <row r="952" spans="1:2">
@@ -7990,7 +7990,7 @@
         <v>950</v>
       </c>
       <c r="B952">
-        <v>12.07327653169616</v>
+        <v>9.8527651752245</v>
       </c>
     </row>
     <row r="953" spans="1:2">
@@ -7998,7 +7998,7 @@
         <v>951</v>
       </c>
       <c r="B953">
-        <v>28.65122891256195</v>
+        <v>4.785193844350998</v>
       </c>
     </row>
     <row r="954" spans="1:2">
@@ -8006,7 +8006,7 @@
         <v>952</v>
       </c>
       <c r="B954">
-        <v>3.585448925102955</v>
+        <v>9.035042032907883</v>
       </c>
     </row>
     <row r="955" spans="1:2">
@@ -8014,7 +8014,7 @@
         <v>953</v>
       </c>
       <c r="B955">
-        <v>3.258148002198717</v>
+        <v>5.751976989852472</v>
       </c>
     </row>
     <row r="956" spans="1:2">
@@ -8022,7 +8022,7 @@
         <v>954</v>
       </c>
       <c r="B956">
-        <v>14.3112071132268</v>
+        <v>11.78776535943005</v>
       </c>
     </row>
     <row r="957" spans="1:2">
@@ -8030,7 +8030,7 @@
         <v>955</v>
       </c>
       <c r="B957">
-        <v>10.74798189315439</v>
+        <v>8.995089453274256</v>
       </c>
     </row>
     <row r="958" spans="1:2">
@@ -8038,7 +8038,7 @@
         <v>956</v>
       </c>
       <c r="B958">
-        <v>8.127812636670168</v>
+        <v>15.44313459690638</v>
       </c>
     </row>
     <row r="959" spans="1:2">
@@ -8046,7 +8046,7 @@
         <v>957</v>
       </c>
       <c r="B959">
-        <v>18.11609126465254</v>
+        <v>24.16780874119025</v>
       </c>
     </row>
     <row r="960" spans="1:2">
@@ -8054,7 +8054,7 @@
         <v>958</v>
       </c>
       <c r="B960">
-        <v>7.321493445027197</v>
+        <v>4.803719737879609</v>
       </c>
     </row>
     <row r="961" spans="1:2">
@@ -8062,7 +8062,7 @@
         <v>959</v>
       </c>
       <c r="B961">
-        <v>15.95862217948945</v>
+        <v>11.57364388155057</v>
       </c>
     </row>
     <row r="962" spans="1:2">
@@ -8070,7 +8070,7 @@
         <v>960</v>
       </c>
       <c r="B962">
-        <v>7.786900530701009</v>
+        <v>4.066863407134099</v>
       </c>
     </row>
     <row r="963" spans="1:2">
@@ -8078,7 +8078,7 @@
         <v>961</v>
       </c>
       <c r="B963">
-        <v>17.85905757121519</v>
+        <v>7.620669186087845</v>
       </c>
     </row>
     <row r="964" spans="1:2">
@@ -8086,7 +8086,7 @@
         <v>962</v>
       </c>
       <c r="B964">
-        <v>6.719811380142277</v>
+        <v>6.836784562916791</v>
       </c>
     </row>
     <row r="965" spans="1:2">
@@ -8094,7 +8094,7 @@
         <v>963</v>
       </c>
       <c r="B965">
-        <v>6.537508210977947</v>
+        <v>20.96777103654163</v>
       </c>
     </row>
     <row r="966" spans="1:2">
@@ -8102,7 +8102,7 @@
         <v>964</v>
       </c>
       <c r="B966">
-        <v>3.679304819082303</v>
+        <v>3.146815070971161</v>
       </c>
     </row>
     <row r="967" spans="1:2">
@@ -8110,7 +8110,7 @@
         <v>965</v>
       </c>
       <c r="B967">
-        <v>10.06782580319137</v>
+        <v>3.818951525222208</v>
       </c>
     </row>
     <row r="968" spans="1:2">
@@ -8118,7 +8118,7 @@
         <v>966</v>
       </c>
       <c r="B968">
-        <v>10.47008509813437</v>
+        <v>8.757096587963868</v>
       </c>
     </row>
     <row r="969" spans="1:2">
@@ -8126,7 +8126,7 @@
         <v>967</v>
       </c>
       <c r="B969">
-        <v>3.134958399088943</v>
+        <v>12.25157841121375</v>
       </c>
     </row>
     <row r="970" spans="1:2">
@@ -8134,7 +8134,7 @@
         <v>968</v>
       </c>
       <c r="B970">
-        <v>18.77424069056268</v>
+        <v>10.02385350410833</v>
       </c>
     </row>
     <row r="971" spans="1:2">
@@ -8142,7 +8142,7 @@
         <v>969</v>
       </c>
       <c r="B971">
-        <v>5.638175339481266</v>
+        <v>5.21981156808467</v>
       </c>
     </row>
     <row r="972" spans="1:2">
@@ -8150,7 +8150,7 @@
         <v>970</v>
       </c>
       <c r="B972">
-        <v>4.840162471699265</v>
+        <v>6.639242652351859</v>
       </c>
     </row>
     <row r="973" spans="1:2">
@@ -8158,7 +8158,7 @@
         <v>971</v>
       </c>
       <c r="B973">
-        <v>5.673295520187548</v>
+        <v>8.965957373703471</v>
       </c>
     </row>
     <row r="974" spans="1:2">
@@ -8166,7 +8166,7 @@
         <v>972</v>
       </c>
       <c r="B974">
-        <v>9.599652225634017</v>
+        <v>11.77150413442326</v>
       </c>
     </row>
     <row r="975" spans="1:2">
@@ -8174,7 +8174,7 @@
         <v>973</v>
       </c>
       <c r="B975">
-        <v>5.473991177736962</v>
+        <v>6.60327196860379</v>
       </c>
     </row>
     <row r="976" spans="1:2">
@@ -8182,7 +8182,7 @@
         <v>974</v>
       </c>
       <c r="B976">
-        <v>11.92826498727447</v>
+        <v>13.52383480890452</v>
       </c>
     </row>
     <row r="977" spans="1:2">
@@ -8190,7 +8190,7 @@
         <v>975</v>
       </c>
       <c r="B977">
-        <v>6.862696085324341</v>
+        <v>5.754045622929868</v>
       </c>
     </row>
     <row r="978" spans="1:2">
@@ -8198,7 +8198,7 @@
         <v>976</v>
       </c>
       <c r="B978">
-        <v>2.992238922307478</v>
+        <v>3.908244911187096</v>
       </c>
     </row>
     <row r="979" spans="1:2">
@@ -8206,7 +8206,7 @@
         <v>977</v>
       </c>
       <c r="B979">
-        <v>5.197603335878282</v>
+        <v>3.653462049163983</v>
       </c>
     </row>
     <row r="980" spans="1:2">
@@ -8214,7 +8214,7 @@
         <v>978</v>
       </c>
       <c r="B980">
-        <v>16.50412060993728</v>
+        <v>4.266246188246181</v>
       </c>
     </row>
     <row r="981" spans="1:2">
@@ -8222,7 +8222,7 @@
         <v>979</v>
       </c>
       <c r="B981">
-        <v>4.490651487843576</v>
+        <v>9.957577291440451</v>
       </c>
     </row>
     <row r="982" spans="1:2">
@@ -8230,7 +8230,7 @@
         <v>980</v>
       </c>
       <c r="B982">
-        <v>5.630072879266829</v>
+        <v>7.599773678327264</v>
       </c>
     </row>
     <row r="983" spans="1:2">
@@ -8238,7 +8238,7 @@
         <v>981</v>
       </c>
       <c r="B983">
-        <v>6.983990944853433</v>
+        <v>12.97341572832226</v>
       </c>
     </row>
     <row r="984" spans="1:2">
@@ -8246,7 +8246,7 @@
         <v>982</v>
       </c>
       <c r="B984">
-        <v>11.53614577045987</v>
+        <v>8.767965432341441</v>
       </c>
     </row>
     <row r="985" spans="1:2">
@@ -8254,7 +8254,7 @@
         <v>983</v>
       </c>
       <c r="B985">
-        <v>7.486571716368595</v>
+        <v>7.353068979419421</v>
       </c>
     </row>
     <row r="986" spans="1:2">
@@ -8262,7 +8262,7 @@
         <v>984</v>
       </c>
       <c r="B986">
-        <v>5.65115023229262</v>
+        <v>5.411729936128859</v>
       </c>
     </row>
     <row r="987" spans="1:2">
@@ -8270,7 +8270,7 @@
         <v>985</v>
       </c>
       <c r="B987">
-        <v>5.392740994431797</v>
+        <v>11.52738130236699</v>
       </c>
     </row>
     <row r="988" spans="1:2">
@@ -8278,7 +8278,7 @@
         <v>986</v>
       </c>
       <c r="B988">
-        <v>9.007589399586076</v>
+        <v>7.587995154274117</v>
       </c>
     </row>
     <row r="989" spans="1:2">
@@ -8286,7 +8286,7 @@
         <v>987</v>
       </c>
       <c r="B989">
-        <v>10.8157094704771</v>
+        <v>12.25948907902727</v>
       </c>
     </row>
     <row r="990" spans="1:2">
@@ -8294,7 +8294,7 @@
         <v>988</v>
       </c>
       <c r="B990">
-        <v>6.807491410089788</v>
+        <v>11.6226427561377</v>
       </c>
     </row>
     <row r="991" spans="1:2">
@@ -8302,7 +8302,7 @@
         <v>989</v>
       </c>
       <c r="B991">
-        <v>4.766495047187348</v>
+        <v>5.509910824423962</v>
       </c>
     </row>
     <row r="992" spans="1:2">
@@ -8310,7 +8310,7 @@
         <v>990</v>
       </c>
       <c r="B992">
-        <v>8.092302193076602</v>
+        <v>3.524470810301966</v>
       </c>
     </row>
     <row r="993" spans="1:2">
@@ -8318,7 +8318,7 @@
         <v>991</v>
       </c>
       <c r="B993">
-        <v>8.900019614227789</v>
+        <v>9.945755809269064</v>
       </c>
     </row>
     <row r="994" spans="1:2">
@@ -8326,7 +8326,7 @@
         <v>992</v>
       </c>
       <c r="B994">
-        <v>8.247800535850315</v>
+        <v>10.44228288227672</v>
       </c>
     </row>
     <row r="995" spans="1:2">
@@ -8334,7 +8334,7 @@
         <v>993</v>
       </c>
       <c r="B995">
-        <v>5.308921364841212</v>
+        <v>10.61659435090239</v>
       </c>
     </row>
     <row r="996" spans="1:2">
@@ -8342,7 +8342,7 @@
         <v>994</v>
       </c>
       <c r="B996">
-        <v>3.793703229105021</v>
+        <v>4.375602317096108</v>
       </c>
     </row>
     <row r="997" spans="1:2">
@@ -8350,7 +8350,7 @@
         <v>995</v>
       </c>
       <c r="B997">
-        <v>6.963168247622007</v>
+        <v>7.914998257244883</v>
       </c>
     </row>
     <row r="998" spans="1:2">
@@ -8358,7 +8358,7 @@
         <v>996</v>
       </c>
       <c r="B998">
-        <v>13.06736194047379</v>
+        <v>8.513397730675377</v>
       </c>
     </row>
     <row r="999" spans="1:2">
@@ -8366,7 +8366,7 @@
         <v>997</v>
       </c>
       <c r="B999">
-        <v>8.055330145899838</v>
+        <v>6.235472280247721</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
@@ -8374,7 +8374,7 @@
         <v>998</v>
       </c>
       <c r="B1000">
-        <v>4.798057391902969</v>
+        <v>7.48925800811365</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
@@ -8382,7 +8382,7 @@
         <v>999</v>
       </c>
       <c r="B1001">
-        <v>4.11013114194733</v>
+        <v>10.55062257428223</v>
       </c>
     </row>
   </sheetData>
